--- a/BackTest/2019-11-20 BackTest FNB.xlsx
+++ b/BackTest/2019-11-20 BackTest FNB.xlsx
@@ -5421,13 +5421,17 @@
         <v>12.05</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12</v>
+      </c>
+      <c r="K144" t="n">
+        <v>12</v>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5456,14 +5460,22 @@
         <v>12.05</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>12</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +5503,22 @@
         <v>12.05</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12</v>
+      </c>
+      <c r="K146" t="n">
+        <v>12</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +7191,20 @@
         <v>11.70000000000001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7239,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7278,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +7310,20 @@
         <v>11.65000000000001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +7351,20 @@
         <v>11.55000000000001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +7392,20 @@
         <v>11.6</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7392,7 +7444,7 @@
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -7463,14 +7515,12 @@
         <v>11.70000000000001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7510,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
@@ -7545,14 +7595,12 @@
         <v>11.45000000000001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7586,14 +7634,12 @@
         <v>11.65000000000001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -7674,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
@@ -7709,14 +7755,12 @@
         <v>11.65</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -7756,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
@@ -7791,14 +7835,12 @@
         <v>11.6</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -7914,14 +7956,12 @@
         <v>11.7</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -7955,14 +7995,12 @@
         <v>11.65</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -7996,14 +8034,12 @@
         <v>11.7</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8037,14 +8073,12 @@
         <v>11.7</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8078,14 +8112,12 @@
         <v>11.75</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8119,14 +8151,12 @@
         <v>11.75</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8160,14 +8190,12 @@
         <v>11.75</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8201,14 +8229,12 @@
         <v>11.8</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8242,14 +8268,12 @@
         <v>11.7</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8283,14 +8307,12 @@
         <v>11.6</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8324,14 +8346,12 @@
         <v>11.65</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8365,14 +8385,12 @@
         <v>11.65</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8406,14 +8424,12 @@
         <v>11.64999999999999</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8447,14 +8463,12 @@
         <v>11.74999999999999</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8488,14 +8502,12 @@
         <v>11.74999999999999</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8529,14 +8541,12 @@
         <v>11.64999999999999</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8570,14 +8580,12 @@
         <v>11.64999999999999</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8611,14 +8619,12 @@
         <v>11.64999999999999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -8652,14 +8658,12 @@
         <v>11.59999999999999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -8693,14 +8697,12 @@
         <v>11.64999999999999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -8734,14 +8736,12 @@
         <v>11.69999999999999</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -8775,14 +8775,12 @@
         <v>11.74999999999999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -8816,14 +8814,12 @@
         <v>11.85</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -8857,14 +8853,12 @@
         <v>11.94999999999999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9096,16 +9090,18 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9133,11 +9129,15 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9168,15 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9207,7 +9211,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +9246,15 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9273,11 +9285,15 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9312,7 +9328,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9347,7 +9367,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9382,7 +9406,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9417,7 +9445,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9452,7 +9484,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9487,7 +9523,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9522,7 +9562,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9557,7 +9601,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9585,18 +9633,18 @@
         <v>11.75</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K256" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9624,20 +9672,16 @@
         <v>11.95</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K257" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M257" t="n">
@@ -9673,12 +9717,10 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M258" t="n">
@@ -9715,7 +9757,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9750,7 +9796,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +9835,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9820,7 +9874,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +9913,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9952,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9925,7 +9991,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9960,7 +10030,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9995,7 +10069,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10030,7 +10108,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10147,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10100,7 +10186,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10135,7 +10225,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10170,7 +10264,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10205,7 +10303,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +10342,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10275,7 +10381,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10310,7 +10420,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10345,7 +10459,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10380,7 +10498,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10415,7 +10537,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10450,7 +10576,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10485,7 +10615,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10654,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10555,7 +10693,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10590,7 +10732,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10625,7 +10771,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10660,7 +10810,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10695,7 +10849,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10730,7 +10888,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10765,7 +10927,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10800,7 +10966,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10835,7 +11005,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10870,7 +11044,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10905,7 +11083,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10940,7 +11122,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10975,7 +11161,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +11200,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11239,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11278,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11115,7 +11317,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11150,7 +11356,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11185,7 +11395,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11220,7 +11434,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +11473,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11290,7 +11512,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11325,7 +11551,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11360,7 +11590,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11391,11 +11625,15 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11426,11 +11664,15 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11461,11 +11703,15 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11496,11 +11742,15 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11531,11 +11781,15 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11570,7 +11824,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11605,7 +11863,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11636,14 +11898,16 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11671,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest FNB.xlsx
+++ b/BackTest/2019-11-20 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M390"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>8072.1195</v>
+        <v>23901.5526</v>
       </c>
       <c r="G2" t="n">
-        <v>12.00000000000002</v>
+        <v>12.02166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>82778.78934710743</v>
+        <v>8072.1195</v>
       </c>
       <c r="G3" t="n">
-        <v>12.05000000000002</v>
+        <v>12.01833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E4" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>98444.65459879421</v>
+        <v>82778.78934710743</v>
       </c>
       <c r="G4" t="n">
-        <v>12.10000000000002</v>
+        <v>12.01666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>12.1</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D5" t="n">
         <v>12.2</v>
@@ -550,10 +550,10 @@
         <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>72993.13325737705</v>
+        <v>98444.65459879421</v>
       </c>
       <c r="G5" t="n">
-        <v>12.15000000000002</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>81703.5594</v>
+        <v>72993.13325737705</v>
       </c>
       <c r="G6" t="n">
-        <v>12.10000000000002</v>
+        <v>12.01333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>91484.7773</v>
+        <v>81703.5594</v>
       </c>
       <c r="G7" t="n">
-        <v>12.00000000000002</v>
+        <v>12.01333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>81907.8707</v>
+        <v>91484.7773</v>
       </c>
       <c r="G8" t="n">
-        <v>12.05000000000001</v>
+        <v>12.01333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>12.1</v>
       </c>
       <c r="F9" t="n">
-        <v>9558.8079</v>
+        <v>81907.8707</v>
       </c>
       <c r="G9" t="n">
-        <v>12.10000000000002</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>8615.4992</v>
+        <v>9558.8079</v>
       </c>
       <c r="G10" t="n">
-        <v>12.10000000000002</v>
+        <v>12.01333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>12.1</v>
       </c>
       <c r="F11" t="n">
-        <v>38755.6431</v>
+        <v>8615.4992</v>
       </c>
       <c r="G11" t="n">
-        <v>12.10000000000002</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>38783.9342</v>
+        <v>38755.6431</v>
       </c>
       <c r="G12" t="n">
-        <v>12.10000000000002</v>
+        <v>12.02000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>12.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1668.8655</v>
+        <v>38783.9342</v>
       </c>
       <c r="G13" t="n">
-        <v>12.10000000000002</v>
+        <v>12.02166666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>12.1</v>
       </c>
       <c r="F14" t="n">
-        <v>127082.0875</v>
+        <v>1668.8655</v>
       </c>
       <c r="G14" t="n">
-        <v>12.10000000000002</v>
+        <v>12.02333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>41</v>
+        <v>127082.0875</v>
       </c>
       <c r="G15" t="n">
-        <v>12.15000000000002</v>
+        <v>12.02333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>12.2</v>
       </c>
       <c r="F16" t="n">
-        <v>2022.4348</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>12.20000000000001</v>
+        <v>12.02500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>3162.0753</v>
+        <v>2022.4348</v>
       </c>
       <c r="G17" t="n">
-        <v>12.15000000000001</v>
+        <v>12.02666666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>12.1</v>
       </c>
       <c r="F18" t="n">
-        <v>5073.0393</v>
+        <v>3162.0753</v>
       </c>
       <c r="G18" t="n">
-        <v>12.10000000000001</v>
+        <v>12.02666666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>5073.0393</v>
       </c>
       <c r="G19" t="n">
-        <v>12.10000000000001</v>
+        <v>12.02666666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G20" t="n">
-        <v>12.10000000000001</v>
+        <v>12.02666666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F21" t="n">
-        <v>53811.103</v>
+        <v>200</v>
       </c>
       <c r="G21" t="n">
-        <v>12.05000000000001</v>
+        <v>12.02833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>53811.103</v>
       </c>
       <c r="G22" t="n">
-        <v>12.00000000000001</v>
+        <v>12.02500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>36975.6956</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="n">
-        <v>12.00000000000001</v>
+        <v>12.02166666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>83152.1881</v>
+        <v>36975.6956</v>
       </c>
       <c r="G24" t="n">
-        <v>12.00000000000001</v>
+        <v>12.02000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>70263.82980000001</v>
+        <v>83152.1881</v>
       </c>
       <c r="G25" t="n">
-        <v>11.95000000000001</v>
+        <v>12.01833333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>70.70650000000001</v>
+        <v>70263.82980000001</v>
       </c>
       <c r="G26" t="n">
-        <v>11.95000000000001</v>
+        <v>12.01666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>70.70650000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>318690.021</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>339248.54</v>
+        <v>318690.021</v>
       </c>
       <c r="G29" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>242320.3857</v>
+        <v>339248.54</v>
       </c>
       <c r="G30" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>57.4792</v>
+        <v>242320.3857</v>
       </c>
       <c r="G31" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>40646.4153</v>
+        <v>57.4792</v>
       </c>
       <c r="G32" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01500000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>56224</v>
+        <v>40646.4153</v>
       </c>
       <c r="G33" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01333333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2598</v>
+        <v>56224</v>
       </c>
       <c r="G34" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>22355.5284</v>
+        <v>0.2598</v>
       </c>
       <c r="G35" t="n">
-        <v>12.00000000000001</v>
+        <v>12.01666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>13114</v>
+        <v>22355.5284</v>
       </c>
       <c r="G36" t="n">
-        <v>12.05000000000001</v>
+        <v>12.01833333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>144629.8653</v>
+        <v>13114</v>
       </c>
       <c r="G37" t="n">
-        <v>12.05000000000001</v>
+        <v>12.02333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
         <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>248467.7993</v>
+        <v>144629.8653</v>
       </c>
       <c r="G38" t="n">
-        <v>11.95000000000001</v>
+        <v>12.02500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F39" t="n">
-        <v>156912.5376</v>
+        <v>248467.7993</v>
       </c>
       <c r="G39" t="n">
-        <v>11.95000000000001</v>
+        <v>12.02333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>1718.061</v>
+        <v>156912.5376</v>
       </c>
       <c r="G40" t="n">
-        <v>12.05000000000001</v>
+        <v>12.02500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>12.1</v>
       </c>
       <c r="F41" t="n">
-        <v>8115.6048</v>
+        <v>1718.061</v>
       </c>
       <c r="G41" t="n">
-        <v>12.10000000000001</v>
+        <v>12.02833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F42" t="n">
-        <v>48318.55</v>
+        <v>8115.6048</v>
       </c>
       <c r="G42" t="n">
-        <v>12.05000000000001</v>
+        <v>12.03000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>2073.1496</v>
+        <v>48318.55</v>
       </c>
       <c r="G43" t="n">
-        <v>12.05000000000001</v>
+        <v>12.03166666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>12.1</v>
@@ -1912,13 +1912,13 @@
         <v>12.1</v>
       </c>
       <c r="E44" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>40084.4815</v>
+        <v>2073.1496</v>
       </c>
       <c r="G44" t="n">
-        <v>12.10000000000001</v>
+        <v>12.03333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>176458.8927</v>
+        <v>40084.4815</v>
       </c>
       <c r="G45" t="n">
-        <v>12.15000000000001</v>
+        <v>12.03500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>12.2</v>
       </c>
       <c r="F46" t="n">
-        <v>124999.9999</v>
+        <v>176458.8927</v>
       </c>
       <c r="G46" t="n">
-        <v>12.20000000000001</v>
+        <v>12.03833333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C47" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D47" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E47" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F47" t="n">
-        <v>15845.9777</v>
+        <v>124999.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>12.25000000000001</v>
+        <v>12.04333333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>12.3</v>
       </c>
       <c r="F48" t="n">
-        <v>204232.7895</v>
+        <v>15845.9777</v>
       </c>
       <c r="G48" t="n">
-        <v>12.30000000000001</v>
+        <v>12.05000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>12.3</v>
       </c>
       <c r="F49" t="n">
-        <v>509.3088</v>
+        <v>204232.7895</v>
       </c>
       <c r="G49" t="n">
-        <v>12.30000000000001</v>
+        <v>12.05833333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C50" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D50" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E50" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F50" t="n">
-        <v>18037.8541</v>
+        <v>509.3088</v>
       </c>
       <c r="G50" t="n">
-        <v>12.25000000000001</v>
+        <v>12.06666666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>12.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1393.6627</v>
+        <v>18037.8541</v>
       </c>
       <c r="G51" t="n">
-        <v>12.20000000000001</v>
+        <v>12.07166666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C52" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D52" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E52" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F52" t="n">
-        <v>41</v>
+        <v>1393.6627</v>
       </c>
       <c r="G52" t="n">
-        <v>12.25000000000001</v>
+        <v>12.07500000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C53" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D53" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E53" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1635.9235</v>
+        <v>41</v>
       </c>
       <c r="G53" t="n">
-        <v>12.25000000000001</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>12.2</v>
       </c>
       <c r="E54" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F54" t="n">
-        <v>115817.4702</v>
+        <v>1635.9235</v>
       </c>
       <c r="G54" t="n">
-        <v>12.20000000000001</v>
+        <v>12.08333333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>12.2</v>
       </c>
       <c r="E55" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F55" t="n">
-        <v>91635.50440000001</v>
+        <v>115817.4702</v>
       </c>
       <c r="G55" t="n">
-        <v>12.20000000000001</v>
+        <v>12.08666666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>12.2</v>
       </c>
       <c r="C56" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D56" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E56" t="n">
         <v>12.2</v>
       </c>
       <c r="F56" t="n">
-        <v>100358.5848</v>
+        <v>91635.50440000001</v>
       </c>
       <c r="G56" t="n">
-        <v>12.25000000000001</v>
+        <v>12.08833333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>12.2</v>
       </c>
       <c r="C57" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D57" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E57" t="n">
         <v>12.2</v>
       </c>
       <c r="F57" t="n">
-        <v>29861.6409</v>
+        <v>100358.5848</v>
       </c>
       <c r="G57" t="n">
-        <v>12.25000000000001</v>
+        <v>12.09166666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>12.2</v>
       </c>
       <c r="F58" t="n">
-        <v>16913.678</v>
+        <v>29861.6409</v>
       </c>
       <c r="G58" t="n">
-        <v>12.20000000000001</v>
+        <v>12.09333333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>12.2</v>
       </c>
       <c r="F59" t="n">
-        <v>10497.1482</v>
+        <v>16913.678</v>
       </c>
       <c r="G59" t="n">
-        <v>12.20000000000001</v>
+        <v>12.09333333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>12.2</v>
       </c>
       <c r="F60" t="n">
-        <v>13536.8948</v>
+        <v>10497.1482</v>
       </c>
       <c r="G60" t="n">
-        <v>12.20000000000001</v>
+        <v>12.09500000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>12.2</v>
       </c>
       <c r="F61" t="n">
-        <v>4981.7268</v>
+        <v>13536.8948</v>
       </c>
       <c r="G61" t="n">
-        <v>12.20000000000001</v>
+        <v>12.09833333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C62" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D62" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E62" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F62" t="n">
-        <v>20543.927</v>
+        <v>4981.7268</v>
       </c>
       <c r="G62" t="n">
-        <v>12.15000000000001</v>
+        <v>12.10166666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C63" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E63" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F63" t="n">
-        <v>487449.939</v>
+        <v>20543.927</v>
       </c>
       <c r="G63" t="n">
-        <v>12.00000000000001</v>
+        <v>12.10333333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
         <v>11.9</v>
       </c>
       <c r="D64" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E64" t="n">
         <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>49060.6372</v>
+        <v>487449.939</v>
       </c>
       <c r="G64" t="n">
-        <v>11.90000000000001</v>
+        <v>12.10000000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>3674.0997</v>
+        <v>49060.6372</v>
       </c>
       <c r="G65" t="n">
-        <v>11.95000000000001</v>
+        <v>12.09666666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>96196.8409</v>
+        <v>3674.0997</v>
       </c>
       <c r="G66" t="n">
-        <v>11.95000000000001</v>
+        <v>12.09333333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>80000</v>
+        <v>96196.8409</v>
       </c>
       <c r="G67" t="n">
-        <v>11.85000000000001</v>
+        <v>12.09166666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>11.8</v>
       </c>
       <c r="C68" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D68" t="n">
         <v>11.8</v>
       </c>
       <c r="E68" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F68" t="n">
-        <v>277110.4225</v>
+        <v>80000</v>
       </c>
       <c r="G68" t="n">
-        <v>11.75000000000001</v>
+        <v>12.08833333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F69" t="n">
-        <v>42</v>
+        <v>277110.4225</v>
       </c>
       <c r="G69" t="n">
-        <v>11.85000000000001</v>
+        <v>12.08166666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G70" t="n">
-        <v>12.00000000000001</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C71" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>6415.3358</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>11.95000000000001</v>
+        <v>12.07833333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>11.9</v>
       </c>
       <c r="F72" t="n">
-        <v>2669.5827</v>
+        <v>6415.3358</v>
       </c>
       <c r="G72" t="n">
-        <v>11.90000000000001</v>
+        <v>12.07500000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>2669.5827</v>
       </c>
       <c r="G73" t="n">
-        <v>11.95000000000001</v>
+        <v>12.07166666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>12</v>
       </c>
       <c r="F74" t="n">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>12.00000000000001</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>28026.6882</v>
+        <v>149</v>
       </c>
       <c r="G75" t="n">
-        <v>12.00000000000001</v>
+        <v>12.06833333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>500000</v>
+        <v>28026.6882</v>
       </c>
       <c r="G76" t="n">
-        <v>11.90000000000001</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>11.9</v>
       </c>
       <c r="C77" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D77" t="n">
         <v>11.9</v>
       </c>
       <c r="E77" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F77" t="n">
-        <v>2095.539</v>
+        <v>500000</v>
       </c>
       <c r="G77" t="n">
-        <v>11.85000000000001</v>
+        <v>12.05833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>11.9</v>
       </c>
       <c r="F78" t="n">
-        <v>26777.9137</v>
+        <v>2095.539</v>
       </c>
       <c r="G78" t="n">
-        <v>11.90000000000001</v>
+        <v>12.05500000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>11.9</v>
       </c>
       <c r="F79" t="n">
-        <v>413.6681</v>
+        <v>26777.9137</v>
       </c>
       <c r="G79" t="n">
-        <v>11.90000000000001</v>
+        <v>12.05166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>11.9</v>
       </c>
       <c r="F80" t="n">
-        <v>26855</v>
+        <v>413.6681</v>
       </c>
       <c r="G80" t="n">
-        <v>11.90000000000001</v>
+        <v>12.04833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>11.9</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4311</v>
+        <v>26855</v>
       </c>
       <c r="G81" t="n">
-        <v>11.90000000000001</v>
+        <v>12.04500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F82" t="n">
-        <v>284.4904</v>
+        <v>0.4311</v>
       </c>
       <c r="G82" t="n">
-        <v>11.95000000000001</v>
+        <v>12.04333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>3500</v>
+        <v>284.4904</v>
       </c>
       <c r="G83" t="n">
-        <v>11.95000000000001</v>
+        <v>12.04333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>11.9</v>
       </c>
       <c r="F84" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G84" t="n">
-        <v>11.90000000000001</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>11.9</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E85" t="n">
         <v>11.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1193.975</v>
+        <v>1500</v>
       </c>
       <c r="G85" t="n">
-        <v>11.95000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C86" t="n">
         <v>12</v>
@@ -3382,13 +3382,13 @@
         <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F86" t="n">
-        <v>35214.65</v>
+        <v>1193.975</v>
       </c>
       <c r="G86" t="n">
-        <v>12.00000000000001</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>12</v>
       </c>
       <c r="F87" t="n">
-        <v>33902.0332</v>
+        <v>35214.65</v>
       </c>
       <c r="G87" t="n">
-        <v>12.00000000000001</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
-        <v>3278.2679</v>
+        <v>33902.0332</v>
       </c>
       <c r="G88" t="n">
-        <v>11.95000000000001</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F89" t="n">
-        <v>42</v>
+        <v>3278.2679</v>
       </c>
       <c r="G89" t="n">
-        <v>11.95000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>12</v>
       </c>
       <c r="F90" t="n">
-        <v>65522.5806</v>
+        <v>42</v>
       </c>
       <c r="G90" t="n">
-        <v>12.00000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>47558.0863</v>
+        <v>65522.5806</v>
       </c>
       <c r="G91" t="n">
-        <v>12.00000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>2003.8886</v>
+        <v>47558.0863</v>
       </c>
       <c r="G92" t="n">
-        <v>12.00000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3624,16 +3624,16 @@
         <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
         <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>949287.5784999999</v>
+        <v>2003.8886</v>
       </c>
       <c r="G93" t="n">
-        <v>12.00000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E94" t="n">
         <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>540000.6885049925</v>
+        <v>949287.5784999999</v>
       </c>
       <c r="G94" t="n">
-        <v>12.05000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>12.1</v>
       </c>
       <c r="C95" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D95" t="n">
         <v>12.2</v>
       </c>
       <c r="E95" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>84364.31563681073</v>
+        <v>540000.6885049925</v>
       </c>
       <c r="G95" t="n">
-        <v>12.15000000000001</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C96" t="n">
         <v>12.2</v>
@@ -3732,13 +3732,13 @@
         <v>12.2</v>
       </c>
       <c r="E96" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F96" t="n">
-        <v>198221.8837</v>
+        <v>84364.31563681073</v>
       </c>
       <c r="G96" t="n">
-        <v>12.20000000000001</v>
+        <v>12.04500000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C97" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D97" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E97" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F97" t="n">
-        <v>2410.5403</v>
+        <v>198221.8837</v>
       </c>
       <c r="G97" t="n">
-        <v>12.25000000000002</v>
+        <v>12.04666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>12.3</v>
       </c>
       <c r="F98" t="n">
-        <v>405490.267</v>
+        <v>2410.5403</v>
       </c>
       <c r="G98" t="n">
-        <v>12.30000000000002</v>
+        <v>12.05166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C99" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D99" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E99" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F99" t="n">
-        <v>65353.9825</v>
+        <v>405490.267</v>
       </c>
       <c r="G99" t="n">
-        <v>12.25000000000002</v>
+        <v>12.05833333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F100" t="n">
-        <v>41</v>
+        <v>65353.9825</v>
       </c>
       <c r="G100" t="n">
-        <v>12.25000000000002</v>
+        <v>12.06166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C101" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D101" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E101" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F101" t="n">
-        <v>23186.345</v>
+        <v>41</v>
       </c>
       <c r="G101" t="n">
-        <v>12.25000000000002</v>
+        <v>12.065</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>12.2</v>
       </c>
       <c r="F102" t="n">
-        <v>93785.7451</v>
+        <v>23186.345</v>
       </c>
       <c r="G102" t="n">
-        <v>12.20000000000002</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C103" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D103" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E103" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F103" t="n">
-        <v>133733.1614</v>
+        <v>93785.7451</v>
       </c>
       <c r="G103" t="n">
-        <v>12.25000000000002</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>12.3</v>
       </c>
       <c r="F104" t="n">
-        <v>46211.2664</v>
+        <v>133733.1614</v>
       </c>
       <c r="G104" t="n">
-        <v>12.30000000000002</v>
+        <v>12.07333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>12.3</v>
       </c>
       <c r="F105" t="n">
-        <v>180618.5183</v>
+        <v>46211.2664</v>
       </c>
       <c r="G105" t="n">
-        <v>12.30000000000002</v>
+        <v>12.07666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>12.3</v>
       </c>
       <c r="F106" t="n">
-        <v>23384.1334</v>
+        <v>180618.5183</v>
       </c>
       <c r="G106" t="n">
-        <v>12.30000000000002</v>
+        <v>12.07833333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>12.3</v>
       </c>
       <c r="F107" t="n">
-        <v>56919.9544</v>
+        <v>23384.1334</v>
       </c>
       <c r="G107" t="n">
-        <v>12.30000000000002</v>
+        <v>12.08</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C108" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E108" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1487.2045</v>
+        <v>56919.9544</v>
       </c>
       <c r="G108" t="n">
-        <v>12.35000000000002</v>
+        <v>12.08</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C109" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D109" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E109" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F109" t="n">
-        <v>27352.1215</v>
+        <v>1487.2045</v>
       </c>
       <c r="G109" t="n">
-        <v>12.35000000000002</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>12.3</v>
       </c>
       <c r="F110" t="n">
-        <v>6504.065040650406</v>
+        <v>27352.1215</v>
       </c>
       <c r="G110" t="n">
-        <v>12.30000000000002</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>12.3</v>
       </c>
       <c r="F111" t="n">
-        <v>117898.6813</v>
+        <v>6504.065040650406</v>
       </c>
       <c r="G111" t="n">
-        <v>12.30000000000002</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>12.3</v>
       </c>
       <c r="F112" t="n">
-        <v>236.683</v>
+        <v>117898.6813</v>
       </c>
       <c r="G112" t="n">
-        <v>12.30000000000002</v>
+        <v>12.085</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>12.3</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>236.683</v>
       </c>
       <c r="G113" t="n">
-        <v>12.30000000000002</v>
+        <v>12.085</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C114" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D114" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E114" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F114" t="n">
-        <v>10440.9837</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="n">
-        <v>12.25000000000002</v>
+        <v>12.08666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>12.2</v>
       </c>
       <c r="F115" t="n">
-        <v>152597.6713</v>
+        <v>10440.9837</v>
       </c>
       <c r="G115" t="n">
-        <v>12.20000000000002</v>
+        <v>12.08666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>12.2</v>
       </c>
       <c r="F116" t="n">
-        <v>81996.2455</v>
+        <v>152597.6713</v>
       </c>
       <c r="G116" t="n">
-        <v>12.20000000000002</v>
+        <v>12.08666666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F117" t="n">
-        <v>70261.58500000001</v>
+        <v>81996.2455</v>
       </c>
       <c r="G117" t="n">
-        <v>12.15000000000001</v>
+        <v>12.085</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>12.1</v>
       </c>
       <c r="F118" t="n">
-        <v>14554.2185</v>
+        <v>70261.58500000001</v>
       </c>
       <c r="G118" t="n">
-        <v>12.10000000000001</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>12.1</v>
       </c>
       <c r="F119" t="n">
-        <v>316.2048</v>
+        <v>14554.2185</v>
       </c>
       <c r="G119" t="n">
-        <v>12.10000000000001</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C120" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D120" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E120" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F120" t="n">
-        <v>42</v>
+        <v>316.2048</v>
       </c>
       <c r="G120" t="n">
-        <v>12.15000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>12.2</v>
       </c>
       <c r="F121" t="n">
-        <v>54167.859</v>
+        <v>42</v>
       </c>
       <c r="G121" t="n">
-        <v>12.20000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>12.2</v>
       </c>
       <c r="F122" t="n">
-        <v>2574.7443</v>
+        <v>54167.859</v>
       </c>
       <c r="G122" t="n">
-        <v>12.2</v>
+        <v>12.08</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>12.2</v>
       </c>
       <c r="F123" t="n">
-        <v>4000</v>
+        <v>2574.7443</v>
       </c>
       <c r="G123" t="n">
-        <v>12.2</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C124" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D124" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E124" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F124" t="n">
-        <v>574295.0777</v>
+        <v>4000</v>
       </c>
       <c r="G124" t="n">
-        <v>12.1</v>
+        <v>12.08666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C125" t="n">
         <v>12</v>
       </c>
       <c r="D125" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E125" t="n">
         <v>12</v>
       </c>
       <c r="F125" t="n">
-        <v>5833.333333333333</v>
+        <v>574295.0777</v>
       </c>
       <c r="G125" t="n">
-        <v>12</v>
+        <v>12.08833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4776,19 @@
         <v>12</v>
       </c>
       <c r="C126" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F126" t="n">
-        <v>402682.4469</v>
+        <v>5833.333333333333</v>
       </c>
       <c r="G126" t="n">
-        <v>12.1</v>
+        <v>12.08833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C127" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D127" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E127" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F127" t="n">
-        <v>134170.2173</v>
+        <v>402682.4469</v>
       </c>
       <c r="G127" t="n">
-        <v>12.25</v>
+        <v>12.09333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C128" t="n">
         <v>12.3</v>
@@ -4852,13 +4852,13 @@
         <v>12.3</v>
       </c>
       <c r="E128" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F128" t="n">
-        <v>48621.1317</v>
+        <v>134170.2173</v>
       </c>
       <c r="G128" t="n">
-        <v>12.3</v>
+        <v>12.10166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>12.3</v>
       </c>
       <c r="F129" t="n">
-        <v>300</v>
+        <v>48621.1317</v>
       </c>
       <c r="G129" t="n">
-        <v>12.3</v>
+        <v>12.11166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C130" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D130" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E130" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="F130" t="n">
-        <v>207096.5805</v>
+        <v>300</v>
       </c>
       <c r="G130" t="n">
-        <v>12.15</v>
+        <v>12.11666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C131" t="n">
         <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E131" t="n">
         <v>12</v>
       </c>
       <c r="F131" t="n">
-        <v>31686.836</v>
+        <v>207096.5805</v>
       </c>
       <c r="G131" t="n">
-        <v>12</v>
+        <v>12.11666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>12</v>
       </c>
       <c r="C132" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D132" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E132" t="n">
         <v>12</v>
       </c>
       <c r="F132" t="n">
-        <v>27432.359</v>
+        <v>31686.836</v>
       </c>
       <c r="G132" t="n">
-        <v>12.1</v>
+        <v>12.11833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E133" t="n">
         <v>12</v>
       </c>
       <c r="F133" t="n">
-        <v>23955.52</v>
+        <v>27432.359</v>
       </c>
       <c r="G133" t="n">
-        <v>12.1</v>
+        <v>12.12333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>12</v>
       </c>
       <c r="F134" t="n">
-        <v>24406.6749</v>
+        <v>23955.52</v>
       </c>
       <c r="G134" t="n">
-        <v>12</v>
+        <v>12.12333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C135" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E135" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F135" t="n">
-        <v>41.4</v>
+        <v>24406.6749</v>
       </c>
       <c r="G135" t="n">
-        <v>12.05</v>
+        <v>12.12333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>12.1</v>
       </c>
       <c r="F136" t="n">
-        <v>2000</v>
+        <v>41.4</v>
       </c>
       <c r="G136" t="n">
-        <v>12.1</v>
+        <v>12.125</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C137" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D137" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E137" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F137" t="n">
-        <v>36033.0022</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="n">
-        <v>12.05</v>
+        <v>12.13</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D138" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E138" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F138" t="n">
-        <v>14554.2186</v>
+        <v>36033.0022</v>
       </c>
       <c r="G138" t="n">
-        <v>11.95</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>11.9</v>
       </c>
       <c r="F139" t="n">
-        <v>140159.3191</v>
+        <v>14554.2186</v>
       </c>
       <c r="G139" t="n">
-        <v>11.9</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>11.9</v>
       </c>
       <c r="F140" t="n">
-        <v>105065.2423</v>
+        <v>140159.3191</v>
       </c>
       <c r="G140" t="n">
-        <v>11.9</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>11.9</v>
       </c>
       <c r="C141" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D141" t="n">
         <v>11.9</v>
       </c>
       <c r="E141" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F141" t="n">
-        <v>199072.6956</v>
+        <v>105065.2423</v>
       </c>
       <c r="G141" t="n">
-        <v>11.85</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>11.8</v>
       </c>
       <c r="F142" t="n">
-        <v>8715.9588</v>
+        <v>199072.6956</v>
       </c>
       <c r="G142" t="n">
-        <v>11.8</v>
+        <v>12.13</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C143" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E143" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F143" t="n">
-        <v>640</v>
+        <v>8715.9588</v>
       </c>
       <c r="G143" t="n">
-        <v>11.9</v>
+        <v>12.12666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,35 +5403,31 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C144" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E144" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F144" t="n">
-        <v>387.6293</v>
+        <v>640</v>
       </c>
       <c r="G144" t="n">
-        <v>12.05</v>
+        <v>12.12833333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>12</v>
-      </c>
-      <c r="K144" t="n">
-        <v>12</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5442,40 +5438,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C145" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F145" t="n">
-        <v>5340.7144</v>
+        <v>387.6293</v>
       </c>
       <c r="G145" t="n">
-        <v>12.05</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>12</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5485,40 +5473,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D146" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E146" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F146" t="n">
-        <v>10000</v>
+        <v>5340.7144</v>
       </c>
       <c r="G146" t="n">
-        <v>12.05</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>12</v>
-      </c>
-      <c r="K146" t="n">
-        <v>12</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5531,19 +5511,19 @@
         <v>12.1</v>
       </c>
       <c r="C147" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D147" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E147" t="n">
         <v>12.1</v>
       </c>
       <c r="F147" t="n">
-        <v>4470.2289</v>
+        <v>10000</v>
       </c>
       <c r="G147" t="n">
-        <v>12.15</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5566,19 +5546,19 @@
         <v>12.1</v>
       </c>
       <c r="C148" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D148" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E148" t="n">
         <v>12.1</v>
       </c>
       <c r="F148" t="n">
-        <v>63.2</v>
+        <v>4470.2289</v>
       </c>
       <c r="G148" t="n">
-        <v>12.15</v>
+        <v>12.13666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D149" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E149" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F149" t="n">
-        <v>78723.89019999999</v>
+        <v>63.2</v>
       </c>
       <c r="G149" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5633,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C150" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E150" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F150" t="n">
-        <v>76188.1165</v>
+        <v>78723.89019999999</v>
       </c>
       <c r="G150" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5668,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C151" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D151" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E151" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F151" t="n">
-        <v>44784.9994</v>
+        <v>76188.1165</v>
       </c>
       <c r="G151" t="n">
-        <v>12.15</v>
+        <v>12.14333333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5703,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C152" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D152" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F152" t="n">
-        <v>42762.7627</v>
+        <v>44784.9994</v>
       </c>
       <c r="G152" t="n">
-        <v>12.05</v>
+        <v>12.145</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5750,10 +5730,10 @@
         <v>12</v>
       </c>
       <c r="F153" t="n">
-        <v>118532.6251</v>
+        <v>42762.7627</v>
       </c>
       <c r="G153" t="n">
-        <v>12</v>
+        <v>12.145</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5785,10 +5765,10 @@
         <v>12</v>
       </c>
       <c r="F154" t="n">
-        <v>35302.2739</v>
+        <v>118532.6251</v>
       </c>
       <c r="G154" t="n">
-        <v>12</v>
+        <v>12.145</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5820,10 +5800,10 @@
         <v>12</v>
       </c>
       <c r="F155" t="n">
-        <v>37841.4105</v>
+        <v>35302.2739</v>
       </c>
       <c r="G155" t="n">
-        <v>12</v>
+        <v>12.14333333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5855,10 +5835,10 @@
         <v>12</v>
       </c>
       <c r="F156" t="n">
-        <v>6943.5889</v>
+        <v>37841.4105</v>
       </c>
       <c r="G156" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5890,10 +5870,10 @@
         <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>11541.7794</v>
+        <v>6943.5889</v>
       </c>
       <c r="G157" t="n">
-        <v>12</v>
+        <v>12.13666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5925,10 +5905,10 @@
         <v>12</v>
       </c>
       <c r="F158" t="n">
-        <v>10082.4667</v>
+        <v>11541.7794</v>
       </c>
       <c r="G158" t="n">
-        <v>12</v>
+        <v>12.13166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5960,10 +5940,10 @@
         <v>12</v>
       </c>
       <c r="F159" t="n">
-        <v>239.9796</v>
+        <v>10082.4667</v>
       </c>
       <c r="G159" t="n">
-        <v>12</v>
+        <v>12.12666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5995,10 +5975,10 @@
         <v>12</v>
       </c>
       <c r="F160" t="n">
-        <v>59216.2934</v>
+        <v>239.9796</v>
       </c>
       <c r="G160" t="n">
-        <v>12</v>
+        <v>12.12333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6030,10 +6010,10 @@
         <v>12</v>
       </c>
       <c r="F161" t="n">
-        <v>146939.6767</v>
+        <v>59216.2934</v>
       </c>
       <c r="G161" t="n">
-        <v>12</v>
+        <v>12.11833333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6053,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C162" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D162" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E162" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F162" t="n">
-        <v>29393.9975</v>
+        <v>146939.6767</v>
       </c>
       <c r="G162" t="n">
-        <v>12.05</v>
+        <v>12.115</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6088,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C163" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D163" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E163" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F163" t="n">
-        <v>36905.9244</v>
+        <v>29393.9975</v>
       </c>
       <c r="G163" t="n">
-        <v>12.05</v>
+        <v>12.11333333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6135,10 +6115,10 @@
         <v>12</v>
       </c>
       <c r="F164" t="n">
-        <v>29431.0331</v>
+        <v>36905.9244</v>
       </c>
       <c r="G164" t="n">
-        <v>12</v>
+        <v>12.10833333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6158,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C165" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D165" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E165" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F165" t="n">
-        <v>11368.3122</v>
+        <v>29431.0331</v>
       </c>
       <c r="G165" t="n">
-        <v>11.95</v>
+        <v>12.10333333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6196,19 +6176,19 @@
         <v>11.9</v>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D166" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E166" t="n">
         <v>11.9</v>
       </c>
       <c r="F166" t="n">
-        <v>45360.286</v>
+        <v>11368.3122</v>
       </c>
       <c r="G166" t="n">
-        <v>11.95</v>
+        <v>12.09666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6240,10 +6220,10 @@
         <v>11.9</v>
       </c>
       <c r="F167" t="n">
-        <v>124762.3259</v>
+        <v>45360.286</v>
       </c>
       <c r="G167" t="n">
-        <v>12</v>
+        <v>12.09166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6266,19 +6246,19 @@
         <v>11.9</v>
       </c>
       <c r="C168" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D168" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E168" t="n">
         <v>11.9</v>
       </c>
       <c r="F168" t="n">
-        <v>27979.8325</v>
+        <v>124762.3259</v>
       </c>
       <c r="G168" t="n">
-        <v>11.95</v>
+        <v>12.08666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6310,10 +6290,10 @@
         <v>11.9</v>
       </c>
       <c r="F169" t="n">
-        <v>54944.4404</v>
+        <v>27979.8325</v>
       </c>
       <c r="G169" t="n">
-        <v>11.9</v>
+        <v>12.07833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6336,19 +6316,19 @@
         <v>11.9</v>
       </c>
       <c r="C170" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D170" t="n">
         <v>11.9</v>
       </c>
       <c r="E170" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F170" t="n">
-        <v>538773.4556</v>
+        <v>54944.4404</v>
       </c>
       <c r="G170" t="n">
-        <v>11.85</v>
+        <v>12.07166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6368,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C171" t="n">
         <v>11.8</v>
       </c>
       <c r="D171" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E171" t="n">
         <v>11.8</v>
       </c>
       <c r="F171" t="n">
-        <v>352893.5803</v>
+        <v>538773.4556</v>
       </c>
       <c r="G171" t="n">
-        <v>11.8</v>
+        <v>12.06333333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6415,10 +6395,10 @@
         <v>11.8</v>
       </c>
       <c r="F172" t="n">
-        <v>10282.2921</v>
+        <v>352893.5803</v>
       </c>
       <c r="G172" t="n">
-        <v>11.8</v>
+        <v>12.05500000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6438,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C173" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D173" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E173" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F173" t="n">
-        <v>105.5501</v>
+        <v>10282.2921</v>
       </c>
       <c r="G173" t="n">
-        <v>11.85</v>
+        <v>12.04666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6473,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C174" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D174" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F174" t="n">
-        <v>2417.6678</v>
+        <v>105.5501</v>
       </c>
       <c r="G174" t="n">
-        <v>11.95</v>
+        <v>12.04000000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6508,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C175" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D175" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F175" t="n">
-        <v>4309.416</v>
+        <v>2417.6678</v>
       </c>
       <c r="G175" t="n">
-        <v>11.95</v>
+        <v>12.03666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6555,10 +6535,10 @@
         <v>11.9</v>
       </c>
       <c r="F176" t="n">
-        <v>18867.4034</v>
+        <v>4309.416</v>
       </c>
       <c r="G176" t="n">
-        <v>11.9</v>
+        <v>12.03166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6590,10 +6570,10 @@
         <v>11.9</v>
       </c>
       <c r="F177" t="n">
-        <v>45.0643</v>
+        <v>18867.4034</v>
       </c>
       <c r="G177" t="n">
-        <v>11.9</v>
+        <v>12.02666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6625,10 +6605,10 @@
         <v>11.9</v>
       </c>
       <c r="F178" t="n">
-        <v>708.2624</v>
+        <v>45.0643</v>
       </c>
       <c r="G178" t="n">
-        <v>11.9</v>
+        <v>12.02333333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C179" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D179" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E179" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F179" t="n">
-        <v>103991.9311</v>
+        <v>708.2624</v>
       </c>
       <c r="G179" t="n">
-        <v>11.85</v>
+        <v>12.02</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6695,10 +6675,10 @@
         <v>11.8</v>
       </c>
       <c r="F180" t="n">
-        <v>148185.5173</v>
+        <v>103991.9311</v>
       </c>
       <c r="G180" t="n">
-        <v>11.80000000000001</v>
+        <v>12.015</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6730,10 +6710,10 @@
         <v>11.8</v>
       </c>
       <c r="F181" t="n">
-        <v>8418.879499999999</v>
+        <v>148185.5173</v>
       </c>
       <c r="G181" t="n">
-        <v>11.80000000000001</v>
+        <v>12.00833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6745,10 @@
         <v>11.8</v>
       </c>
       <c r="F182" t="n">
-        <v>1400</v>
+        <v>8418.879499999999</v>
       </c>
       <c r="G182" t="n">
-        <v>11.80000000000001</v>
+        <v>12.00166666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6800,10 +6780,10 @@
         <v>11.8</v>
       </c>
       <c r="F183" t="n">
-        <v>3210.6997</v>
+        <v>1400</v>
       </c>
       <c r="G183" t="n">
-        <v>11.80000000000001</v>
+        <v>11.995</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6835,10 +6815,10 @@
         <v>11.8</v>
       </c>
       <c r="F184" t="n">
-        <v>6567.5653</v>
+        <v>3210.6997</v>
       </c>
       <c r="G184" t="n">
-        <v>11.80000000000001</v>
+        <v>11.98833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6870,10 +6850,10 @@
         <v>11.8</v>
       </c>
       <c r="F185" t="n">
-        <v>31338.6445</v>
+        <v>6567.5653</v>
       </c>
       <c r="G185" t="n">
-        <v>11.80000000000001</v>
+        <v>11.98499999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6905,10 +6885,10 @@
         <v>11.8</v>
       </c>
       <c r="F186" t="n">
-        <v>1102.8428</v>
+        <v>31338.6445</v>
       </c>
       <c r="G186" t="n">
-        <v>11.80000000000001</v>
+        <v>11.98166666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6940,10 +6920,10 @@
         <v>11.8</v>
       </c>
       <c r="F187" t="n">
-        <v>10000</v>
+        <v>1102.8428</v>
       </c>
       <c r="G187" t="n">
-        <v>11.80000000000001</v>
+        <v>11.97499999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6975,10 +6955,10 @@
         <v>11.8</v>
       </c>
       <c r="F188" t="n">
-        <v>30370.076</v>
+        <v>10000</v>
       </c>
       <c r="G188" t="n">
-        <v>11.80000000000001</v>
+        <v>11.96666666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7010,10 +6990,10 @@
         <v>11.8</v>
       </c>
       <c r="F189" t="n">
-        <v>300</v>
+        <v>30370.076</v>
       </c>
       <c r="G189" t="n">
-        <v>11.80000000000001</v>
+        <v>11.95833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7036,19 +7016,19 @@
         <v>11.8</v>
       </c>
       <c r="C190" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D190" t="n">
         <v>11.8</v>
       </c>
       <c r="E190" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F190" t="n">
-        <v>187191.44</v>
+        <v>300</v>
       </c>
       <c r="G190" t="n">
-        <v>11.75000000000001</v>
+        <v>11.94999999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7071,19 +7051,19 @@
         <v>11.8</v>
       </c>
       <c r="C191" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D191" t="n">
         <v>11.8</v>
       </c>
       <c r="E191" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F191" t="n">
-        <v>38394.6716</v>
+        <v>187191.44</v>
       </c>
       <c r="G191" t="n">
-        <v>11.75000000000001</v>
+        <v>11.94499999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7115,10 +7095,10 @@
         <v>11.8</v>
       </c>
       <c r="F192" t="n">
-        <v>67127.0751</v>
+        <v>38394.6716</v>
       </c>
       <c r="G192" t="n">
-        <v>11.80000000000001</v>
+        <v>11.94166666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7138,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C193" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D193" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E193" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F193" t="n">
-        <v>319677.6032</v>
+        <v>67127.0751</v>
       </c>
       <c r="G193" t="n">
-        <v>11.75000000000001</v>
+        <v>11.93499999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7182,431 +7162,383 @@
         <v>11.7</v>
       </c>
       <c r="E194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>319677.6032</v>
+      </c>
+      <c r="G194" t="n">
+        <v>11.92999999999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E195" t="n">
         <v>11.6</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F195" t="n">
         <v>118722.6416</v>
       </c>
-      <c r="G194" t="n">
-        <v>11.70000000000001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
+      <c r="G195" t="n">
+        <v>11.92499999999999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>11.7</v>
       </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="C196" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>60206.1728</v>
+      </c>
+      <c r="G196" t="n">
+        <v>11.91833333333333</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>105.5501</v>
+      </c>
+      <c r="G197" t="n">
+        <v>11.91166666666666</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>534230.2036</v>
+      </c>
+      <c r="G198" t="n">
+        <v>11.90499999999999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>113463.1358</v>
+      </c>
+      <c r="G199" t="n">
+        <v>11.89833333333333</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>43</v>
+      </c>
+      <c r="G200" t="n">
+        <v>11.89499999999999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F201" t="n">
+        <v>206163.7111</v>
+      </c>
+      <c r="G201" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F202" t="n">
+        <v>219263.7605</v>
+      </c>
+      <c r="G202" t="n">
+        <v>11.88666666666666</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>335.007</v>
+      </c>
+      <c r="G203" t="n">
+        <v>11.88666666666666</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K203" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1242804.8469</v>
+      </c>
+      <c r="G204" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>60206.1728</v>
-      </c>
-      <c r="G195" t="n">
-        <v>11.70000000000001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>105.5501</v>
-      </c>
-      <c r="G196" t="n">
-        <v>11.70000000000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F197" t="n">
-        <v>534230.2036</v>
-      </c>
-      <c r="G197" t="n">
-        <v>11.65000000000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D198" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E198" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F198" t="n">
-        <v>113463.1358</v>
-      </c>
-      <c r="G198" t="n">
-        <v>11.55000000000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D199" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E199" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F199" t="n">
-        <v>43</v>
-      </c>
-      <c r="G199" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C200" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D200" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E200" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F200" t="n">
-        <v>206163.7111</v>
-      </c>
-      <c r="G200" t="n">
-        <v>11.65000000000001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D201" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E201" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F201" t="n">
-        <v>219263.7605</v>
-      </c>
-      <c r="G201" t="n">
-        <v>11.60000000000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E202" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F202" t="n">
-        <v>335.007</v>
-      </c>
-      <c r="G202" t="n">
-        <v>11.70000000000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D203" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E203" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1242804.8469</v>
-      </c>
-      <c r="G203" t="n">
-        <v>11.55000000000001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C204" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E204" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2175.2003</v>
-      </c>
-      <c r="G204" t="n">
-        <v>11.45000000000001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7616,22 +7548,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C205" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D205" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E205" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F205" t="n">
-        <v>28511.4939</v>
+        <v>2175.2003</v>
       </c>
       <c r="G205" t="n">
-        <v>11.65000000000001</v>
+        <v>11.86666666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7640,7 +7572,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7667,10 +7601,10 @@
         <v>11.7</v>
       </c>
       <c r="F206" t="n">
-        <v>27695.7563</v>
+        <v>28511.4939</v>
       </c>
       <c r="G206" t="n">
-        <v>11.70000000000001</v>
+        <v>11.86166666666666</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -7679,9 +7613,11 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K206" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,7 +7632,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C207" t="n">
         <v>11.7</v>
@@ -7705,13 +7641,13 @@
         <v>11.7</v>
       </c>
       <c r="E207" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F207" t="n">
-        <v>283695.4351</v>
+        <v>27695.7563</v>
       </c>
       <c r="G207" t="n">
-        <v>11.7</v>
+        <v>11.855</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -7722,7 +7658,9 @@
       <c r="J207" t="n">
         <v>11.7</v>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7740,28 +7678,30 @@
         <v>11.6</v>
       </c>
       <c r="C208" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>283695.4351</v>
+      </c>
+      <c r="G208" t="n">
+        <v>11.84666666666666</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
         <v>11.6</v>
       </c>
-      <c r="D208" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E208" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F208" t="n">
-        <v>150740.0901</v>
-      </c>
-      <c r="G208" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,7 +7716,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C209" t="n">
         <v>11.6</v>
@@ -7785,24 +7725,26 @@
         <v>11.6</v>
       </c>
       <c r="E209" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F209" t="n">
-        <v>168</v>
+        <v>150740.0901</v>
       </c>
       <c r="G209" t="n">
+        <v>11.83833333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K209" t="n">
         <v>11.6</v>
       </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7817,7 +7759,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C210" t="n">
         <v>11.6</v>
@@ -7826,22 +7768,24 @@
         <v>11.6</v>
       </c>
       <c r="E210" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F210" t="n">
+        <v>168</v>
+      </c>
+      <c r="G210" t="n">
+        <v>11.83166666666667</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
         <v>11.6</v>
       </c>
-      <c r="F210" t="n">
-        <v>107258.5163</v>
-      </c>
-      <c r="G210" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,24 +7809,24 @@
         <v>11.6</v>
       </c>
       <c r="E211" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F211" t="n">
-        <v>2233.5261</v>
+        <v>107258.5163</v>
       </c>
       <c r="G211" t="n">
+        <v>11.82166666666666</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
         <v>11.6</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,30 +7844,30 @@
         <v>11.6</v>
       </c>
       <c r="C212" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D212" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2233.5261</v>
+      </c>
+      <c r="G212" t="n">
+        <v>11.81333333333333</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
         <v>11.6</v>
       </c>
-      <c r="F212" t="n">
-        <v>884.11</v>
-      </c>
-      <c r="G212" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,19 +7885,19 @@
         <v>11.6</v>
       </c>
       <c r="C213" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D213" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E213" t="n">
         <v>11.6</v>
       </c>
       <c r="F213" t="n">
-        <v>4145.1861</v>
+        <v>884.11</v>
       </c>
       <c r="G213" t="n">
-        <v>11.7</v>
+        <v>11.81</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7962,7 +7906,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7977,22 +7923,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C214" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D214" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E214" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F214" t="n">
-        <v>42.7351</v>
+        <v>4145.1861</v>
       </c>
       <c r="G214" t="n">
-        <v>11.65</v>
+        <v>11.80333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8001,7 +7947,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,10 +7976,10 @@
         <v>11.7</v>
       </c>
       <c r="F215" t="n">
-        <v>238188.7537</v>
+        <v>42.7351</v>
       </c>
       <c r="G215" t="n">
-        <v>11.7</v>
+        <v>11.79833333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8040,7 +7988,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,10 +8017,10 @@
         <v>11.7</v>
       </c>
       <c r="F216" t="n">
-        <v>54085.9467</v>
+        <v>238188.7537</v>
       </c>
       <c r="G216" t="n">
-        <v>11.7</v>
+        <v>11.79333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8079,7 +8029,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,22 +8046,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C217" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D217" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E217" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F217" t="n">
-        <v>11030.2802</v>
+        <v>54085.9467</v>
       </c>
       <c r="G217" t="n">
-        <v>11.75</v>
+        <v>11.78833333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8118,7 +8070,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,31 +8087,33 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C218" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D218" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E218" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F218" t="n">
+        <v>11030.2802</v>
+      </c>
+      <c r="G218" t="n">
+        <v>11.785</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
         <v>11.6</v>
       </c>
-      <c r="F218" t="n">
-        <v>143073.4045</v>
-      </c>
-      <c r="G218" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,22 +8128,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C219" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D219" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E219" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F219" t="n">
-        <v>40968.8325</v>
+        <v>143073.4045</v>
       </c>
       <c r="G219" t="n">
-        <v>11.75</v>
+        <v>11.78</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8196,7 +8152,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,7 +8169,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C220" t="n">
         <v>11.8</v>
@@ -8220,22 +8178,24 @@
         <v>11.8</v>
       </c>
       <c r="E220" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>40968.8325</v>
+      </c>
+      <c r="G220" t="n">
+        <v>11.77666666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
         <v>11.6</v>
       </c>
-      <c r="F220" t="n">
-        <v>102521.6027</v>
-      </c>
-      <c r="G220" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,19 +8213,19 @@
         <v>11.6</v>
       </c>
       <c r="C221" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D221" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E221" t="n">
         <v>11.6</v>
       </c>
       <c r="F221" t="n">
-        <v>107259.8993</v>
+        <v>102521.6027</v>
       </c>
       <c r="G221" t="n">
-        <v>11.7</v>
+        <v>11.77333333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8274,7 +8234,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,19 +8263,21 @@
         <v>11.6</v>
       </c>
       <c r="F222" t="n">
-        <v>694.7569999999999</v>
+        <v>107259.8993</v>
       </c>
       <c r="G222" t="n">
+        <v>11.76666666666666</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
         <v>11.6</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,19 +8295,19 @@
         <v>11.6</v>
       </c>
       <c r="C223" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D223" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E223" t="n">
         <v>11.6</v>
       </c>
       <c r="F223" t="n">
-        <v>135896.7345</v>
+        <v>694.7569999999999</v>
       </c>
       <c r="G223" t="n">
-        <v>11.65</v>
+        <v>11.75833333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8352,7 +8316,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8370,19 +8336,19 @@
         <v>11.6</v>
       </c>
       <c r="C224" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D224" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E224" t="n">
         <v>11.6</v>
       </c>
       <c r="F224" t="n">
-        <v>28511.4939</v>
+        <v>135896.7345</v>
       </c>
       <c r="G224" t="n">
-        <v>11.65</v>
+        <v>11.75333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8391,7 +8357,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,22 +8374,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C225" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D225" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E225" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F225" t="n">
-        <v>355198.171</v>
+        <v>28511.4939</v>
       </c>
       <c r="G225" t="n">
-        <v>11.64999999999999</v>
+        <v>11.74666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8430,7 +8398,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,22 +8415,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C226" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D226" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E226" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F226" t="n">
-        <v>43</v>
+        <v>355198.171</v>
       </c>
       <c r="G226" t="n">
-        <v>11.74999999999999</v>
+        <v>11.74333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8469,7 +8439,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,22 +8456,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C227" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D227" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E227" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F227" t="n">
-        <v>44176.4238</v>
+        <v>43</v>
       </c>
       <c r="G227" t="n">
-        <v>11.74999999999999</v>
+        <v>11.74</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8508,7 +8480,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,31 +8497,33 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F228" t="n">
+        <v>44176.4238</v>
+      </c>
+      <c r="G228" t="n">
+        <v>11.735</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
         <v>11.6</v>
       </c>
-      <c r="C228" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D228" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E228" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F228" t="n">
-        <v>188447.1096</v>
-      </c>
-      <c r="G228" t="n">
-        <v>11.64999999999999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,22 +8538,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C229" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D229" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E229" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F229" t="n">
-        <v>3016.3106</v>
+        <v>188447.1096</v>
       </c>
       <c r="G229" t="n">
-        <v>11.64999999999999</v>
+        <v>11.73</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8586,7 +8562,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,31 +8579,33 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C230" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D230" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3016.3106</v>
+      </c>
+      <c r="G230" t="n">
+        <v>11.72666666666667</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
         <v>11.6</v>
       </c>
-      <c r="D230" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F230" t="n">
-        <v>155424.8734</v>
-      </c>
-      <c r="G230" t="n">
-        <v>11.64999999999999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8640,22 +8620,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C231" t="n">
         <v>11.6</v>
       </c>
       <c r="D231" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E231" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F231" t="n">
-        <v>282216.9085</v>
+        <v>155424.8734</v>
       </c>
       <c r="G231" t="n">
-        <v>11.59999999999999</v>
+        <v>11.72333333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8664,7 +8644,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8682,19 +8664,19 @@
         <v>11.7</v>
       </c>
       <c r="C232" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D232" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E232" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F232" t="n">
-        <v>2036.3919</v>
+        <v>282216.9085</v>
       </c>
       <c r="G232" t="n">
-        <v>11.64999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8703,7 +8685,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8730,10 +8714,10 @@
         <v>11.7</v>
       </c>
       <c r="F233" t="n">
-        <v>139843.6861</v>
+        <v>2036.3919</v>
       </c>
       <c r="G233" t="n">
-        <v>11.69999999999999</v>
+        <v>11.71833333333334</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8742,7 +8726,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,22 +8743,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C234" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D234" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E234" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F234" t="n">
-        <v>42</v>
+        <v>139843.6861</v>
       </c>
       <c r="G234" t="n">
-        <v>11.74999999999999</v>
+        <v>11.71500000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8781,7 +8767,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,19 +8787,19 @@
         <v>11.8</v>
       </c>
       <c r="C235" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D235" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E235" t="n">
         <v>11.8</v>
       </c>
       <c r="F235" t="n">
-        <v>45057.9056</v>
+        <v>42</v>
       </c>
       <c r="G235" t="n">
-        <v>11.85</v>
+        <v>11.71166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8820,7 +8808,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,22 +8825,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C236" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D236" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E236" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F236" t="n">
-        <v>64796.8721</v>
+        <v>45057.9056</v>
       </c>
       <c r="G236" t="n">
-        <v>11.94999999999999</v>
+        <v>11.71166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8859,7 +8849,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,22 +8866,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C237" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D237" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E237" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F237" t="n">
-        <v>48417.2852</v>
+        <v>64796.8721</v>
       </c>
       <c r="G237" t="n">
-        <v>12.04999999999999</v>
+        <v>11.71333333333334</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8898,7 +8890,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,19 +8910,19 @@
         <v>12.1</v>
       </c>
       <c r="C238" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D238" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E238" t="n">
         <v>12.1</v>
       </c>
       <c r="F238" t="n">
-        <v>255039.5843</v>
+        <v>48417.2852</v>
       </c>
       <c r="G238" t="n">
-        <v>12.14999999999999</v>
+        <v>11.71666666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8937,7 +8931,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,7 +8948,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C239" t="n">
         <v>12.2</v>
@@ -8961,13 +8957,13 @@
         <v>12.2</v>
       </c>
       <c r="E239" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F239" t="n">
-        <v>10586.0732</v>
+        <v>255039.5843</v>
       </c>
       <c r="G239" t="n">
-        <v>12.19999999999999</v>
+        <v>11.72166666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8976,7 +8972,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,38 +8989,40 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C240" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D240" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E240" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F240" t="n">
-        <v>18880.0915</v>
+        <v>10586.0732</v>
       </c>
       <c r="G240" t="n">
-        <v>12.14999999999999</v>
+        <v>11.72833333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>1</v>
+        <v>1.046724137931035</v>
       </c>
     </row>
     <row r="241">
@@ -9030,36 +9030,32 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C241" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D241" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E241" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F241" t="n">
-        <v>67896.8468</v>
+        <v>18880.0915</v>
       </c>
       <c r="G241" t="n">
-        <v>11.94999999999999</v>
+        <v>11.73333333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9069,36 +9065,32 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C242" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D242" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E242" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F242" t="n">
-        <v>41.7</v>
+        <v>67896.8468</v>
       </c>
       <c r="G242" t="n">
-        <v>11.9</v>
+        <v>11.73333333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9108,36 +9100,32 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C243" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D243" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E243" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F243" t="n">
-        <v>47358.7009</v>
+        <v>41.7</v>
       </c>
       <c r="G243" t="n">
-        <v>11.94999999999999</v>
+        <v>11.73666666666668</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9147,36 +9135,32 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C244" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D244" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E244" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F244" t="n">
-        <v>42</v>
+        <v>47358.7009</v>
       </c>
       <c r="G244" t="n">
-        <v>11.95</v>
+        <v>11.73833333333335</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9186,22 +9170,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C245" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D245" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E245" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F245" t="n">
-        <v>37708.9386</v>
+        <v>42</v>
       </c>
       <c r="G245" t="n">
-        <v>11.95</v>
+        <v>11.74166666666668</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9211,11 +9195,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9225,7 +9205,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C246" t="n">
         <v>11.9</v>
@@ -9234,13 +9214,13 @@
         <v>11.9</v>
       </c>
       <c r="E246" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F246" t="n">
-        <v>960</v>
+        <v>37708.9386</v>
       </c>
       <c r="G246" t="n">
-        <v>11.9</v>
+        <v>11.74333333333335</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9250,11 +9230,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9276,10 +9252,10 @@
         <v>11.9</v>
       </c>
       <c r="F247" t="n">
-        <v>9880.616900000001</v>
+        <v>960</v>
       </c>
       <c r="G247" t="n">
-        <v>11.9</v>
+        <v>11.74500000000001</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9289,11 +9265,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9303,22 +9275,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C248" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D248" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E248" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F248" t="n">
-        <v>1009.9287</v>
+        <v>9880.616900000001</v>
       </c>
       <c r="G248" t="n">
-        <v>11.85</v>
+        <v>11.74666666666668</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9328,11 +9300,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9342,22 +9310,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C249" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D249" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E249" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F249" t="n">
-        <v>35484.5424</v>
+        <v>1009.9287</v>
       </c>
       <c r="G249" t="n">
-        <v>11.75</v>
+        <v>11.74666666666668</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9367,11 +9335,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9384,19 +9348,19 @@
         <v>11.7</v>
       </c>
       <c r="C250" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D250" t="n">
         <v>11.7</v>
       </c>
       <c r="E250" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F250" t="n">
-        <v>63917.4182</v>
+        <v>35484.5424</v>
       </c>
       <c r="G250" t="n">
-        <v>11.65</v>
+        <v>11.74500000000002</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9406,11 +9370,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9423,19 +9383,19 @@
         <v>11.7</v>
       </c>
       <c r="C251" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D251" t="n">
         <v>11.7</v>
       </c>
       <c r="E251" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F251" t="n">
-        <v>3000</v>
+        <v>63917.4182</v>
       </c>
       <c r="G251" t="n">
-        <v>11.65</v>
+        <v>11.74333333333335</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9445,11 +9405,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9471,10 +9427,10 @@
         <v>11.7</v>
       </c>
       <c r="F252" t="n">
-        <v>8164.6854</v>
+        <v>3000</v>
       </c>
       <c r="G252" t="n">
-        <v>11.7</v>
+        <v>11.74166666666668</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9484,11 +9440,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9498,22 +9450,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C253" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D253" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E253" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F253" t="n">
-        <v>11271.7124</v>
+        <v>8164.6854</v>
       </c>
       <c r="G253" t="n">
-        <v>11.65</v>
+        <v>11.74000000000002</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9523,11 +9475,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9549,10 +9497,10 @@
         <v>11.6</v>
       </c>
       <c r="F254" t="n">
-        <v>10915.4061</v>
+        <v>11271.7124</v>
       </c>
       <c r="G254" t="n">
-        <v>11.6</v>
+        <v>11.73833333333335</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9562,11 +9510,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9576,22 +9520,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C255" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D255" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E255" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F255" t="n">
-        <v>2946.3289</v>
+        <v>10915.4061</v>
       </c>
       <c r="G255" t="n">
-        <v>11.65</v>
+        <v>11.73666666666668</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9601,11 +9545,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9615,22 +9555,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C256" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D256" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E256" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F256" t="n">
-        <v>18960.004</v>
+        <v>2946.3289</v>
       </c>
       <c r="G256" t="n">
-        <v>11.75</v>
+        <v>11.73666666666668</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9640,11 +9580,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9654,22 +9590,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C257" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D257" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E257" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F257" t="n">
-        <v>78021.24739999999</v>
+        <v>18960.004</v>
       </c>
       <c r="G257" t="n">
-        <v>11.95</v>
+        <v>11.73833333333335</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9679,11 +9615,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9696,19 +9628,19 @@
         <v>11.9</v>
       </c>
       <c r="C258" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D258" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E258" t="n">
         <v>11.9</v>
       </c>
       <c r="F258" t="n">
-        <v>1610.9251</v>
+        <v>78021.24739999999</v>
       </c>
       <c r="G258" t="n">
-        <v>12</v>
+        <v>11.74666666666668</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9718,11 +9650,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9744,10 +9672,10 @@
         <v>11.9</v>
       </c>
       <c r="F259" t="n">
-        <v>8138.9316</v>
+        <v>1610.9251</v>
       </c>
       <c r="G259" t="n">
-        <v>11.9</v>
+        <v>11.75333333333335</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9757,11 +9685,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9783,10 +9707,10 @@
         <v>11.9</v>
       </c>
       <c r="F260" t="n">
-        <v>8361.4501</v>
+        <v>8138.9316</v>
       </c>
       <c r="G260" t="n">
-        <v>11.9</v>
+        <v>11.75666666666668</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9796,11 +9720,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9822,10 +9742,10 @@
         <v>11.9</v>
       </c>
       <c r="F261" t="n">
-        <v>55524.5055</v>
+        <v>8361.4501</v>
       </c>
       <c r="G261" t="n">
-        <v>11.9</v>
+        <v>11.76166666666668</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9835,11 +9755,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9849,22 +9765,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C262" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D262" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E262" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F262" t="n">
-        <v>111902.9464</v>
+        <v>55524.5055</v>
       </c>
       <c r="G262" t="n">
-        <v>11.95</v>
+        <v>11.76666666666668</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9874,11 +9790,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9900,10 +9812,10 @@
         <v>12</v>
       </c>
       <c r="F263" t="n">
-        <v>16449733.1208</v>
+        <v>111902.9464</v>
       </c>
       <c r="G263" t="n">
-        <v>12</v>
+        <v>11.77000000000001</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9913,11 +9825,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9939,10 +9847,10 @@
         <v>12</v>
       </c>
       <c r="F264" t="n">
-        <v>18911597.9416</v>
+        <v>16449733.1208</v>
       </c>
       <c r="G264" t="n">
-        <v>12</v>
+        <v>11.78166666666668</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9952,11 +9860,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9978,10 +9882,10 @@
         <v>12</v>
       </c>
       <c r="F265" t="n">
-        <v>29923471.3707</v>
+        <v>18911597.9416</v>
       </c>
       <c r="G265" t="n">
-        <v>12</v>
+        <v>11.78833333333335</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9991,11 +9895,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10017,10 +9917,10 @@
         <v>12</v>
       </c>
       <c r="F266" t="n">
-        <v>783320.6248</v>
+        <v>29923471.3707</v>
       </c>
       <c r="G266" t="n">
-        <v>12</v>
+        <v>11.79333333333335</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10030,11 +9930,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10044,22 +9940,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C267" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D267" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E267" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F267" t="n">
-        <v>148251.453</v>
+        <v>783320.6248</v>
       </c>
       <c r="G267" t="n">
-        <v>11.85</v>
+        <v>11.79833333333335</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10069,11 +9965,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10083,22 +9975,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C268" t="n">
         <v>11.7</v>
       </c>
       <c r="D268" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E268" t="n">
         <v>11.7</v>
       </c>
       <c r="F268" t="n">
-        <v>63369.3488</v>
+        <v>148251.453</v>
       </c>
       <c r="G268" t="n">
-        <v>11.7</v>
+        <v>11.79833333333335</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10108,11 +10000,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10134,10 +10022,10 @@
         <v>11.7</v>
       </c>
       <c r="F269" t="n">
-        <v>36624.5099</v>
+        <v>63369.3488</v>
       </c>
       <c r="G269" t="n">
-        <v>11.7</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10147,11 +10035,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10173,10 +10057,10 @@
         <v>11.7</v>
       </c>
       <c r="F270" t="n">
-        <v>3241.7135</v>
+        <v>36624.5099</v>
       </c>
       <c r="G270" t="n">
-        <v>11.7</v>
+        <v>11.80166666666668</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10186,11 +10070,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10203,19 +10083,19 @@
         <v>11.7</v>
       </c>
       <c r="C271" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D271" t="n">
         <v>11.7</v>
       </c>
       <c r="E271" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F271" t="n">
-        <v>4488</v>
+        <v>3241.7135</v>
       </c>
       <c r="G271" t="n">
-        <v>11.65</v>
+        <v>11.80333333333335</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10225,11 +10105,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10242,19 +10118,19 @@
         <v>11.7</v>
       </c>
       <c r="C272" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D272" t="n">
         <v>11.7</v>
       </c>
       <c r="E272" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F272" t="n">
-        <v>83.8382</v>
+        <v>4488</v>
       </c>
       <c r="G272" t="n">
-        <v>11.65</v>
+        <v>11.80333333333335</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10264,11 +10140,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10290,10 +10162,10 @@
         <v>11.7</v>
       </c>
       <c r="F273" t="n">
-        <v>82224.9212</v>
+        <v>83.8382</v>
       </c>
       <c r="G273" t="n">
-        <v>11.7</v>
+        <v>11.80166666666668</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10303,11 +10175,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10317,22 +10185,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C274" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D274" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E274" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F274" t="n">
-        <v>42.1251</v>
+        <v>82224.9212</v>
       </c>
       <c r="G274" t="n">
-        <v>11.8</v>
+        <v>11.80333333333335</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10342,11 +10210,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10356,22 +10220,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C275" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D275" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E275" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F275" t="n">
-        <v>4770.9845</v>
+        <v>42.1251</v>
       </c>
       <c r="G275" t="n">
-        <v>11.8</v>
+        <v>11.80666666666668</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10381,11 +10245,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10407,10 +10267,10 @@
         <v>11.7</v>
       </c>
       <c r="F276" t="n">
-        <v>29505.2252</v>
+        <v>4770.9845</v>
       </c>
       <c r="G276" t="n">
-        <v>11.7</v>
+        <v>11.80666666666668</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10420,11 +10280,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10434,22 +10290,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C277" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D277" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E277" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F277" t="n">
-        <v>42</v>
+        <v>29505.2252</v>
       </c>
       <c r="G277" t="n">
-        <v>11.75</v>
+        <v>11.80666666666668</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10459,11 +10315,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10485,10 +10337,10 @@
         <v>11.8</v>
       </c>
       <c r="F278" t="n">
-        <v>80953.02559999999</v>
+        <v>42</v>
       </c>
       <c r="G278" t="n">
-        <v>11.8</v>
+        <v>11.80666666666668</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10498,11 +10350,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10512,22 +10360,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C279" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D279" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E279" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F279" t="n">
-        <v>42.1251</v>
+        <v>80953.02559999999</v>
       </c>
       <c r="G279" t="n">
-        <v>11.85</v>
+        <v>11.80833333333335</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10537,11 +10385,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10563,10 +10407,10 @@
         <v>11.9</v>
       </c>
       <c r="F280" t="n">
-        <v>93482.9283</v>
+        <v>42.1251</v>
       </c>
       <c r="G280" t="n">
-        <v>11.9</v>
+        <v>11.81000000000001</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10576,11 +10420,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10602,10 +10442,10 @@
         <v>11.9</v>
       </c>
       <c r="F281" t="n">
-        <v>25568.3583</v>
+        <v>93482.9283</v>
       </c>
       <c r="G281" t="n">
-        <v>11.90000000000001</v>
+        <v>11.81166666666668</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10615,11 +10455,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10641,10 +10477,10 @@
         <v>11.9</v>
       </c>
       <c r="F282" t="n">
-        <v>24474.6417</v>
+        <v>25568.3583</v>
       </c>
       <c r="G282" t="n">
-        <v>11.90000000000001</v>
+        <v>11.81666666666668</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10654,11 +10490,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10668,7 +10500,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C283" t="n">
         <v>11.9</v>
@@ -10677,13 +10509,13 @@
         <v>11.9</v>
       </c>
       <c r="E283" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F283" t="n">
-        <v>18621.8818</v>
+        <v>24474.6417</v>
       </c>
       <c r="G283" t="n">
-        <v>11.90000000000001</v>
+        <v>11.82166666666668</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10693,11 +10525,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10707,7 +10535,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C284" t="n">
         <v>11.9</v>
@@ -10716,25 +10544,27 @@
         <v>11.9</v>
       </c>
       <c r="E284" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F284" t="n">
-        <v>7974.8284</v>
+        <v>18621.8818</v>
       </c>
       <c r="G284" t="n">
-        <v>11.90000000000001</v>
+        <v>11.82500000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M284" t="n">
@@ -10746,30 +10576,32 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C285" t="n">
         <v>11.9</v>
       </c>
       <c r="D285" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E285" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F285" t="n">
-        <v>16013.0643</v>
+        <v>7974.8284</v>
       </c>
       <c r="G285" t="n">
-        <v>11.90000000000001</v>
+        <v>11.83000000000001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -10785,22 +10617,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C286" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D286" t="n">
         <v>12</v>
       </c>
       <c r="E286" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F286" t="n">
-        <v>6061</v>
+        <v>16013.0643</v>
       </c>
       <c r="G286" t="n">
-        <v>11.95000000000001</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10824,7 +10656,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C287" t="n">
         <v>12</v>
@@ -10833,21 +10665,23 @@
         <v>12</v>
       </c>
       <c r="E287" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F287" t="n">
-        <v>2145</v>
+        <v>6061</v>
       </c>
       <c r="G287" t="n">
-        <v>12.00000000000001</v>
+        <v>11.83666666666668</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
@@ -10875,10 +10709,10 @@
         <v>12</v>
       </c>
       <c r="F288" t="n">
-        <v>382</v>
+        <v>2145</v>
       </c>
       <c r="G288" t="n">
-        <v>12.00000000000001</v>
+        <v>11.84166666666668</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10914,10 +10748,10 @@
         <v>12</v>
       </c>
       <c r="F289" t="n">
-        <v>18692.039</v>
+        <v>382</v>
       </c>
       <c r="G289" t="n">
-        <v>12.00000000000001</v>
+        <v>11.84833333333334</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10953,10 +10787,10 @@
         <v>12</v>
       </c>
       <c r="F290" t="n">
-        <v>716</v>
+        <v>18692.039</v>
       </c>
       <c r="G290" t="n">
-        <v>12.00000000000001</v>
+        <v>11.85333333333334</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10992,10 +10826,10 @@
         <v>12</v>
       </c>
       <c r="F291" t="n">
-        <v>182</v>
+        <v>716</v>
       </c>
       <c r="G291" t="n">
-        <v>12.00000000000001</v>
+        <v>11.86000000000001</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11031,10 +10865,10 @@
         <v>12</v>
       </c>
       <c r="F292" t="n">
-        <v>366</v>
+        <v>182</v>
       </c>
       <c r="G292" t="n">
-        <v>12.00000000000001</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11058,22 +10892,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C293" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D293" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E293" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F293" t="n">
-        <v>367197</v>
+        <v>366</v>
       </c>
       <c r="G293" t="n">
-        <v>11.95000000000001</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11097,22 +10931,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C294" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D294" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E294" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F294" t="n">
-        <v>90088</v>
+        <v>367197</v>
       </c>
       <c r="G294" t="n">
-        <v>11.95000000000001</v>
+        <v>11.87500000000001</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11136,22 +10970,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C295" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D295" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E295" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F295" t="n">
-        <v>124995.2597</v>
+        <v>90088</v>
       </c>
       <c r="G295" t="n">
-        <v>12.05000000000001</v>
+        <v>11.87833333333334</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11187,10 +11021,10 @@
         <v>12</v>
       </c>
       <c r="F296" t="n">
-        <v>16988.3224</v>
+        <v>124995.2597</v>
       </c>
       <c r="G296" t="n">
-        <v>12.10000000000001</v>
+        <v>11.88166666666667</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11214,7 +11048,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C297" t="n">
         <v>12.1</v>
@@ -11223,13 +11057,13 @@
         <v>12.1</v>
       </c>
       <c r="E297" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F297" t="n">
-        <v>381</v>
+        <v>16988.3224</v>
       </c>
       <c r="G297" t="n">
-        <v>12.10000000000001</v>
+        <v>11.88333333333334</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11265,10 +11099,10 @@
         <v>12.1</v>
       </c>
       <c r="F298" t="n">
-        <v>1174</v>
+        <v>381</v>
       </c>
       <c r="G298" t="n">
-        <v>12.10000000000001</v>
+        <v>11.88333333333334</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11304,10 +11138,10 @@
         <v>12.1</v>
       </c>
       <c r="F299" t="n">
-        <v>834</v>
+        <v>1174</v>
       </c>
       <c r="G299" t="n">
-        <v>12.10000000000001</v>
+        <v>11.88166666666667</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11343,10 +11177,10 @@
         <v>12.1</v>
       </c>
       <c r="F300" t="n">
-        <v>429</v>
+        <v>834</v>
       </c>
       <c r="G300" t="n">
-        <v>12.10000000000001</v>
+        <v>11.88000000000001</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11382,10 +11216,10 @@
         <v>12.1</v>
       </c>
       <c r="F301" t="n">
-        <v>163886.4491</v>
+        <v>429</v>
       </c>
       <c r="G301" t="n">
-        <v>12.10000000000001</v>
+        <v>11.88000000000001</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11412,19 +11246,19 @@
         <v>12.1</v>
       </c>
       <c r="C302" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D302" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E302" t="n">
         <v>12.1</v>
       </c>
       <c r="F302" t="n">
-        <v>27095.567</v>
+        <v>163886.4491</v>
       </c>
       <c r="G302" t="n">
-        <v>12.15000000000001</v>
+        <v>11.88500000000001</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11448,22 +11282,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C303" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D303" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E303" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F303" t="n">
-        <v>338355.6932</v>
+        <v>27095.567</v>
       </c>
       <c r="G303" t="n">
-        <v>12.25000000000001</v>
+        <v>11.88833333333334</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11487,7 +11321,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C304" t="n">
         <v>12.3</v>
@@ -11496,13 +11330,13 @@
         <v>12.3</v>
       </c>
       <c r="E304" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F304" t="n">
-        <v>821</v>
+        <v>338355.6932</v>
       </c>
       <c r="G304" t="n">
-        <v>12.30000000000001</v>
+        <v>11.89500000000001</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11526,7 +11360,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C305" t="n">
         <v>12.3</v>
@@ -11535,13 +11369,13 @@
         <v>12.3</v>
       </c>
       <c r="E305" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F305" t="n">
-        <v>676135.5033</v>
+        <v>821</v>
       </c>
       <c r="G305" t="n">
-        <v>12.30000000000001</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11565,22 +11399,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C306" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D306" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E306" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F306" t="n">
-        <v>45333.4491</v>
+        <v>676135.5033</v>
       </c>
       <c r="G306" t="n">
-        <v>12.25000000000001</v>
+        <v>11.90666666666667</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11604,22 +11438,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C307" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D307" t="n">
         <v>12.4</v>
       </c>
       <c r="E307" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F307" t="n">
-        <v>110551.8798</v>
+        <v>45333.4491</v>
       </c>
       <c r="G307" t="n">
-        <v>12.30000000000001</v>
+        <v>11.91166666666667</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11643,7 +11477,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C308" t="n">
         <v>12.4</v>
@@ -11652,13 +11486,13 @@
         <v>12.4</v>
       </c>
       <c r="E308" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F308" t="n">
-        <v>96822.89509999999</v>
+        <v>110551.8798</v>
       </c>
       <c r="G308" t="n">
-        <v>12.40000000000001</v>
+        <v>11.92000000000001</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11694,10 +11528,10 @@
         <v>12.4</v>
       </c>
       <c r="F309" t="n">
-        <v>37664.1686</v>
+        <v>96822.89509999999</v>
       </c>
       <c r="G309" t="n">
-        <v>12.40000000000002</v>
+        <v>11.93000000000001</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11733,10 +11567,10 @@
         <v>12.4</v>
       </c>
       <c r="F310" t="n">
-        <v>644</v>
+        <v>37664.1686</v>
       </c>
       <c r="G310" t="n">
-        <v>12.40000000000002</v>
+        <v>11.94166666666667</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11763,36 +11597,34 @@
         <v>12.4</v>
       </c>
       <c r="C311" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D311" t="n">
         <v>12.4</v>
       </c>
       <c r="E311" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F311" t="n">
-        <v>87638.0998</v>
+        <v>644</v>
       </c>
       <c r="G311" t="n">
-        <v>12.35000000000002</v>
+        <v>11.95500000000001</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11802,19 +11634,19 @@
         <v>12.4</v>
       </c>
       <c r="C312" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D312" t="n">
         <v>12.4</v>
       </c>
       <c r="E312" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F312" t="n">
-        <v>527</v>
+        <v>87638.0998</v>
       </c>
       <c r="G312" t="n">
-        <v>12.35000000000002</v>
+        <v>11.96500000000001</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11824,11 +11656,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11850,10 +11678,10 @@
         <v>12.4</v>
       </c>
       <c r="F313" t="n">
-        <v>383</v>
+        <v>527</v>
       </c>
       <c r="G313" t="n">
-        <v>12.40000000000002</v>
+        <v>11.97666666666667</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11863,11 +11691,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11880,34 +11704,32 @@
         <v>12.4</v>
       </c>
       <c r="C314" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D314" t="n">
         <v>12.4</v>
       </c>
       <c r="E314" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F314" t="n">
-        <v>79757.5221</v>
+        <v>383</v>
       </c>
       <c r="G314" t="n">
-        <v>12.35000000000002</v>
+        <v>11.99</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11917,25 +11739,25 @@
         <v>12.4</v>
       </c>
       <c r="C315" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D315" t="n">
         <v>12.4</v>
       </c>
       <c r="E315" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F315" t="n">
-        <v>61708.7346</v>
+        <v>79757.5221</v>
       </c>
       <c r="G315" t="n">
-        <v>12.35000000000002</v>
+        <v>12.00166666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
@@ -11961,10 +11783,10 @@
         <v>12.4</v>
       </c>
       <c r="F316" t="n">
-        <v>821</v>
+        <v>61708.7346</v>
       </c>
       <c r="G316" t="n">
-        <v>12.40000000000002</v>
+        <v>12.01333333333333</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11996,10 +11818,10 @@
         <v>12.4</v>
       </c>
       <c r="F317" t="n">
-        <v>251.0505</v>
+        <v>821</v>
       </c>
       <c r="G317" t="n">
-        <v>12.40000000000002</v>
+        <v>12.02333333333334</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -12022,19 +11844,19 @@
         <v>12.4</v>
       </c>
       <c r="C318" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D318" t="n">
         <v>12.4</v>
       </c>
       <c r="E318" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F318" t="n">
-        <v>72143.49589999999</v>
+        <v>251.0505</v>
       </c>
       <c r="G318" t="n">
-        <v>12.35000000000002</v>
+        <v>12.02833333333333</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -12054,22 +11876,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C319" t="n">
         <v>12.3</v>
       </c>
       <c r="D319" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E319" t="n">
         <v>12.3</v>
       </c>
       <c r="F319" t="n">
-        <v>21898.4059</v>
+        <v>72143.49589999999</v>
       </c>
       <c r="G319" t="n">
-        <v>12.30000000000002</v>
+        <v>12.035</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -12089,22 +11911,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C320" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D320" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E320" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F320" t="n">
-        <v>176007.0914</v>
+        <v>21898.4059</v>
       </c>
       <c r="G320" t="n">
-        <v>12.35000000000002</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -12136,10 +11958,10 @@
         <v>12.4</v>
       </c>
       <c r="F321" t="n">
-        <v>59827</v>
+        <v>176007.0914</v>
       </c>
       <c r="G321" t="n">
-        <v>12.40000000000002</v>
+        <v>12.05</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -12165,16 +11987,16 @@
         <v>12.4</v>
       </c>
       <c r="D322" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E322" t="n">
         <v>12.4</v>
       </c>
       <c r="F322" t="n">
-        <v>133703.6509</v>
+        <v>59827</v>
       </c>
       <c r="G322" t="n">
-        <v>12.40000000000002</v>
+        <v>12.05833333333333</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -12200,16 +12022,16 @@
         <v>12.4</v>
       </c>
       <c r="D323" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E323" t="n">
         <v>12.4</v>
       </c>
       <c r="F323" t="n">
-        <v>16878.9886</v>
+        <v>133703.6509</v>
       </c>
       <c r="G323" t="n">
-        <v>12.40000000000002</v>
+        <v>12.065</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -12241,10 +12063,10 @@
         <v>12.4</v>
       </c>
       <c r="F324" t="n">
-        <v>40.3226</v>
+        <v>16878.9886</v>
       </c>
       <c r="G324" t="n">
-        <v>12.40000000000002</v>
+        <v>12.07166666666667</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -12264,22 +12086,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C325" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D325" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E325" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F325" t="n">
-        <v>168913.3919</v>
+        <v>40.3226</v>
       </c>
       <c r="G325" t="n">
-        <v>12.30000000000002</v>
+        <v>12.07833333333333</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -12302,19 +12124,19 @@
         <v>12.3</v>
       </c>
       <c r="C326" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D326" t="n">
         <v>12.3</v>
       </c>
       <c r="E326" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F326" t="n">
-        <v>95.6673</v>
+        <v>168913.3919</v>
       </c>
       <c r="G326" t="n">
-        <v>12.25000000000002</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -12346,10 +12168,10 @@
         <v>12.3</v>
       </c>
       <c r="F327" t="n">
-        <v>110332</v>
+        <v>95.6673</v>
       </c>
       <c r="G327" t="n">
-        <v>12.30000000000003</v>
+        <v>12.08666666666667</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -12369,22 +12191,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C328" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D328" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E328" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F328" t="n">
-        <v>222.4084</v>
+        <v>110332</v>
       </c>
       <c r="G328" t="n">
-        <v>12.25000000000003</v>
+        <v>12.09666666666666</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -12404,22 +12226,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C329" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D329" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E329" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F329" t="n">
-        <v>21632.4437</v>
+        <v>222.4084</v>
       </c>
       <c r="G329" t="n">
-        <v>12.30000000000003</v>
+        <v>12.105</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -12439,7 +12261,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C330" t="n">
         <v>12.4</v>
@@ -12448,13 +12270,13 @@
         <v>12.4</v>
       </c>
       <c r="E330" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F330" t="n">
-        <v>8530</v>
+        <v>21632.4437</v>
       </c>
       <c r="G330" t="n">
-        <v>12.40000000000003</v>
+        <v>12.11666666666666</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -12486,10 +12308,10 @@
         <v>12.4</v>
       </c>
       <c r="F331" t="n">
-        <v>25383.1115</v>
+        <v>8530</v>
       </c>
       <c r="G331" t="n">
-        <v>12.40000000000003</v>
+        <v>12.12833333333333</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12521,10 +12343,10 @@
         <v>12.4</v>
       </c>
       <c r="F332" t="n">
-        <v>2312.6448</v>
+        <v>25383.1115</v>
       </c>
       <c r="G332" t="n">
-        <v>12.40000000000003</v>
+        <v>12.14166666666666</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12544,22 +12366,22 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C333" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D333" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E333" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>2312.6448</v>
       </c>
       <c r="G333" t="n">
-        <v>12.35000000000003</v>
+        <v>12.15333333333333</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12582,19 +12404,19 @@
         <v>12.3</v>
       </c>
       <c r="C334" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D334" t="n">
         <v>12.3</v>
       </c>
       <c r="E334" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F334" t="n">
-        <v>114291.5504</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="n">
-        <v>12.25000000000003</v>
+        <v>12.16333333333333</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12617,19 +12439,19 @@
         <v>12.3</v>
       </c>
       <c r="C335" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D335" t="n">
         <v>12.3</v>
       </c>
       <c r="E335" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F335" t="n">
-        <v>242536</v>
+        <v>114291.5504</v>
       </c>
       <c r="G335" t="n">
-        <v>12.25000000000003</v>
+        <v>12.16833333333333</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12661,10 +12483,10 @@
         <v>12.3</v>
       </c>
       <c r="F336" t="n">
-        <v>116509</v>
+        <v>242536</v>
       </c>
       <c r="G336" t="n">
-        <v>12.30000000000003</v>
+        <v>12.17833333333332</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12696,10 +12518,10 @@
         <v>12.3</v>
       </c>
       <c r="F337" t="n">
-        <v>37588.0785</v>
+        <v>116509</v>
       </c>
       <c r="G337" t="n">
-        <v>12.30000000000003</v>
+        <v>12.18833333333332</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12731,10 +12553,10 @@
         <v>12.3</v>
       </c>
       <c r="F338" t="n">
-        <v>55951.2266</v>
+        <v>37588.0785</v>
       </c>
       <c r="G338" t="n">
-        <v>12.30000000000003</v>
+        <v>12.19666666666666</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12766,10 +12588,10 @@
         <v>12.3</v>
       </c>
       <c r="F339" t="n">
-        <v>14671.3034</v>
+        <v>55951.2266</v>
       </c>
       <c r="G339" t="n">
-        <v>12.30000000000003</v>
+        <v>12.20499999999999</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12792,19 +12614,19 @@
         <v>12.3</v>
       </c>
       <c r="C340" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D340" t="n">
         <v>12.3</v>
       </c>
       <c r="E340" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F340" t="n">
-        <v>55747.6653</v>
+        <v>14671.3034</v>
       </c>
       <c r="G340" t="n">
-        <v>12.25000000000003</v>
+        <v>12.21166666666666</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12827,19 +12649,19 @@
         <v>12.3</v>
       </c>
       <c r="C341" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D341" t="n">
         <v>12.3</v>
       </c>
       <c r="E341" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F341" t="n">
-        <v>13881.4063</v>
+        <v>55747.6653</v>
       </c>
       <c r="G341" t="n">
-        <v>12.25000000000003</v>
+        <v>12.21666666666666</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12859,22 +12681,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C342" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D342" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E342" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F342" t="n">
-        <v>646</v>
+        <v>13881.4063</v>
       </c>
       <c r="G342" t="n">
-        <v>12.35000000000004</v>
+        <v>12.22333333333332</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12897,19 +12719,19 @@
         <v>12.4</v>
       </c>
       <c r="C343" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D343" t="n">
         <v>12.4</v>
       </c>
       <c r="E343" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F343" t="n">
-        <v>6997.5937</v>
+        <v>646</v>
       </c>
       <c r="G343" t="n">
-        <v>12.35000000000004</v>
+        <v>12.23166666666666</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12929,22 +12751,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C344" t="n">
         <v>12.3</v>
       </c>
       <c r="D344" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E344" t="n">
         <v>12.3</v>
       </c>
       <c r="F344" t="n">
-        <v>40575.0404</v>
+        <v>6997.5937</v>
       </c>
       <c r="G344" t="n">
-        <v>12.30000000000004</v>
+        <v>12.23833333333332</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12964,22 +12786,22 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C345" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D345" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E345" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F345" t="n">
-        <v>10370.1726</v>
+        <v>40575.0404</v>
       </c>
       <c r="G345" t="n">
-        <v>12.25000000000003</v>
+        <v>12.24499999999999</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -13002,19 +12824,19 @@
         <v>12.2</v>
       </c>
       <c r="C346" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D346" t="n">
         <v>12.2</v>
       </c>
       <c r="E346" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F346" t="n">
-        <v>26572.8366</v>
+        <v>10370.1726</v>
       </c>
       <c r="G346" t="n">
-        <v>12.15000000000003</v>
+        <v>12.24999999999999</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -13034,22 +12856,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C347" t="n">
         <v>12.1</v>
       </c>
       <c r="D347" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E347" t="n">
         <v>12.1</v>
       </c>
       <c r="F347" t="n">
-        <v>2866.2584</v>
+        <v>26572.8366</v>
       </c>
       <c r="G347" t="n">
-        <v>12.10000000000003</v>
+        <v>12.25166666666666</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -13072,19 +12894,19 @@
         <v>12.1</v>
       </c>
       <c r="C348" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D348" t="n">
         <v>12.1</v>
       </c>
       <c r="E348" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F348" t="n">
-        <v>688.8538</v>
+        <v>2866.2584</v>
       </c>
       <c r="G348" t="n">
-        <v>12.05000000000003</v>
+        <v>12.25333333333332</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -13107,19 +12929,19 @@
         <v>12.1</v>
       </c>
       <c r="C349" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D349" t="n">
         <v>12.1</v>
       </c>
       <c r="E349" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F349" t="n">
-        <v>122233.006</v>
+        <v>688.8538</v>
       </c>
       <c r="G349" t="n">
-        <v>12.05000000000003</v>
+        <v>12.25333333333332</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -13139,22 +12961,22 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C350" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D350" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E350" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F350" t="n">
-        <v>5044.5496</v>
+        <v>122233.006</v>
       </c>
       <c r="G350" t="n">
-        <v>12.15000000000003</v>
+        <v>12.25499999999999</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -13186,10 +13008,10 @@
         <v>12.2</v>
       </c>
       <c r="F351" t="n">
-        <v>108805.3714</v>
+        <v>5044.5496</v>
       </c>
       <c r="G351" t="n">
-        <v>12.20000000000003</v>
+        <v>12.25833333333333</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -13221,10 +13043,10 @@
         <v>12.2</v>
       </c>
       <c r="F352" t="n">
-        <v>160741.8075</v>
+        <v>108805.3714</v>
       </c>
       <c r="G352" t="n">
-        <v>12.20000000000003</v>
+        <v>12.26166666666666</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -13244,22 +13066,22 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C353" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D353" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E353" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F353" t="n">
-        <v>5577</v>
+        <v>160741.8075</v>
       </c>
       <c r="G353" t="n">
-        <v>12.25000000000003</v>
+        <v>12.26499999999999</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -13291,10 +13113,10 @@
         <v>12.3</v>
       </c>
       <c r="F354" t="n">
-        <v>33451.864</v>
+        <v>5577</v>
       </c>
       <c r="G354" t="n">
-        <v>12.30000000000003</v>
+        <v>12.27166666666666</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -13314,22 +13136,22 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C355" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D355" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E355" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F355" t="n">
-        <v>89222.35030000001</v>
+        <v>33451.864</v>
       </c>
       <c r="G355" t="n">
-        <v>12.35000000000003</v>
+        <v>12.27666666666666</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -13361,10 +13183,10 @@
         <v>12.4</v>
       </c>
       <c r="F356" t="n">
-        <v>82248.4354</v>
+        <v>89222.35030000001</v>
       </c>
       <c r="G356" t="n">
-        <v>12.40000000000003</v>
+        <v>12.28166666666666</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -13384,22 +13206,22 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C357" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D357" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E357" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F357" t="n">
-        <v>11054</v>
+        <v>82248.4354</v>
       </c>
       <c r="G357" t="n">
-        <v>12.45000000000003</v>
+        <v>12.28666666666666</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -13422,19 +13244,19 @@
         <v>12.5</v>
       </c>
       <c r="C358" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D358" t="n">
         <v>12.5</v>
       </c>
       <c r="E358" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F358" t="n">
-        <v>73049.5434</v>
+        <v>11054</v>
       </c>
       <c r="G358" t="n">
-        <v>12.45000000000003</v>
+        <v>12.29333333333332</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -13454,22 +13276,22 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C359" t="n">
         <v>12.4</v>
       </c>
       <c r="D359" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E359" t="n">
         <v>12.4</v>
       </c>
       <c r="F359" t="n">
-        <v>170716.358</v>
+        <v>73049.5434</v>
       </c>
       <c r="G359" t="n">
-        <v>12.40000000000003</v>
+        <v>12.29833333333332</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -13492,19 +13314,19 @@
         <v>12.4</v>
       </c>
       <c r="C360" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D360" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E360" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F360" t="n">
-        <v>121266.2061</v>
+        <v>170716.358</v>
       </c>
       <c r="G360" t="n">
-        <v>12.35000000000003</v>
+        <v>12.30333333333332</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -13527,7 +13349,7 @@
         <v>12.4</v>
       </c>
       <c r="C361" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D361" t="n">
         <v>12.5</v>
@@ -13536,10 +13358,10 @@
         <v>12.3</v>
       </c>
       <c r="F361" t="n">
-        <v>82998.6364</v>
+        <v>121266.2061</v>
       </c>
       <c r="G361" t="n">
-        <v>12.40000000000003</v>
+        <v>12.30666666666665</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13562,19 +13384,19 @@
         <v>12.4</v>
       </c>
       <c r="C362" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D362" t="n">
         <v>12.5</v>
       </c>
       <c r="E362" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F362" t="n">
-        <v>66097.9782</v>
+        <v>82998.6364</v>
       </c>
       <c r="G362" t="n">
-        <v>12.45000000000003</v>
+        <v>12.31333333333332</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13603,13 +13425,13 @@
         <v>12.5</v>
       </c>
       <c r="E363" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F363" t="n">
-        <v>133774.3154</v>
+        <v>66097.9782</v>
       </c>
       <c r="G363" t="n">
-        <v>12.40000000000003</v>
+        <v>12.31666666666665</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -13635,16 +13457,16 @@
         <v>12.4</v>
       </c>
       <c r="D364" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E364" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F364" t="n">
-        <v>120942.7928</v>
+        <v>133774.3154</v>
       </c>
       <c r="G364" t="n">
-        <v>12.40000000000003</v>
+        <v>12.31833333333332</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -13676,10 +13498,10 @@
         <v>12.4</v>
       </c>
       <c r="F365" t="n">
-        <v>102629.2306</v>
+        <v>120942.7928</v>
       </c>
       <c r="G365" t="n">
-        <v>12.40000000000003</v>
+        <v>12.31999999999999</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13702,19 +13524,19 @@
         <v>12.4</v>
       </c>
       <c r="C366" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D366" t="n">
         <v>12.4</v>
       </c>
       <c r="E366" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F366" t="n">
-        <v>502056.1809</v>
+        <v>102629.2306</v>
       </c>
       <c r="G366" t="n">
-        <v>12.35000000000003</v>
+        <v>12.32166666666665</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -13734,22 +13556,22 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C367" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D367" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E367" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F367" t="n">
-        <v>195470.1551</v>
+        <v>502056.1809</v>
       </c>
       <c r="G367" t="n">
-        <v>12.25000000000002</v>
+        <v>12.32333333333332</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -13775,16 +13597,16 @@
         <v>12.2</v>
       </c>
       <c r="D368" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E368" t="n">
         <v>12.2</v>
       </c>
       <c r="F368" t="n">
-        <v>67830.5748</v>
+        <v>195470.1551</v>
       </c>
       <c r="G368" t="n">
-        <v>12.20000000000002</v>
+        <v>12.31999999999999</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -13816,10 +13638,10 @@
         <v>12.2</v>
       </c>
       <c r="F369" t="n">
-        <v>40.9837</v>
+        <v>67830.5748</v>
       </c>
       <c r="G369" t="n">
-        <v>12.20000000000002</v>
+        <v>12.31666666666666</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -13851,10 +13673,10 @@
         <v>12.2</v>
       </c>
       <c r="F370" t="n">
-        <v>10016</v>
+        <v>40.9837</v>
       </c>
       <c r="G370" t="n">
-        <v>12.20000000000002</v>
+        <v>12.31333333333332</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -13883,13 +13705,13 @@
         <v>12.2</v>
       </c>
       <c r="E371" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F371" t="n">
-        <v>133528</v>
+        <v>10016</v>
       </c>
       <c r="G371" t="n">
-        <v>12.20000000000002</v>
+        <v>12.30999999999999</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -13918,13 +13740,13 @@
         <v>12.2</v>
       </c>
       <c r="E372" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F372" t="n">
-        <v>124722</v>
+        <v>133528</v>
       </c>
       <c r="G372" t="n">
-        <v>12.20000000000002</v>
+        <v>12.30833333333333</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -13956,10 +13778,10 @@
         <v>12.2</v>
       </c>
       <c r="F373" t="n">
-        <v>137511</v>
+        <v>124722</v>
       </c>
       <c r="G373" t="n">
-        <v>12.20000000000002</v>
+        <v>12.30499999999999</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -13991,10 +13813,10 @@
         <v>12.2</v>
       </c>
       <c r="F374" t="n">
-        <v>126750</v>
+        <v>137511</v>
       </c>
       <c r="G374" t="n">
-        <v>12.20000000000002</v>
+        <v>12.30166666666666</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -14026,10 +13848,10 @@
         <v>12.2</v>
       </c>
       <c r="F375" t="n">
-        <v>129803.2175</v>
+        <v>126750</v>
       </c>
       <c r="G375" t="n">
-        <v>12.20000000000002</v>
+        <v>12.3</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -14061,10 +13883,10 @@
         <v>12.2</v>
       </c>
       <c r="F376" t="n">
-        <v>124547</v>
+        <v>129803.2175</v>
       </c>
       <c r="G376" t="n">
-        <v>12.20000000000002</v>
+        <v>12.29666666666666</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -14096,10 +13918,10 @@
         <v>12.2</v>
       </c>
       <c r="F377" t="n">
-        <v>159404</v>
+        <v>124547</v>
       </c>
       <c r="G377" t="n">
-        <v>12.20000000000002</v>
+        <v>12.29333333333333</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -14131,10 +13953,10 @@
         <v>12.2</v>
       </c>
       <c r="F378" t="n">
-        <v>231718</v>
+        <v>159404</v>
       </c>
       <c r="G378" t="n">
-        <v>12.20000000000002</v>
+        <v>12.29</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -14166,10 +13988,10 @@
         <v>12.2</v>
       </c>
       <c r="F379" t="n">
-        <v>248019</v>
+        <v>231718</v>
       </c>
       <c r="G379" t="n">
-        <v>12.20000000000002</v>
+        <v>12.28833333333333</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -14201,10 +14023,10 @@
         <v>12.2</v>
       </c>
       <c r="F380" t="n">
-        <v>216338</v>
+        <v>248019</v>
       </c>
       <c r="G380" t="n">
-        <v>12.20000000000002</v>
+        <v>12.28666666666667</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -14236,10 +14058,10 @@
         <v>12.2</v>
       </c>
       <c r="F381" t="n">
-        <v>226973</v>
+        <v>216338</v>
       </c>
       <c r="G381" t="n">
-        <v>12.20000000000002</v>
+        <v>12.28333333333334</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -14271,10 +14093,10 @@
         <v>12.2</v>
       </c>
       <c r="F382" t="n">
-        <v>264872.5534</v>
+        <v>226973</v>
       </c>
       <c r="G382" t="n">
-        <v>12.20000000000002</v>
+        <v>12.28</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -14306,10 +14128,10 @@
         <v>12.2</v>
       </c>
       <c r="F383" t="n">
-        <v>527740</v>
+        <v>264872.5534</v>
       </c>
       <c r="G383" t="n">
-        <v>12.20000000000002</v>
+        <v>12.27666666666667</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -14341,10 +14163,10 @@
         <v>12.2</v>
       </c>
       <c r="F384" t="n">
-        <v>1272288</v>
+        <v>527740</v>
       </c>
       <c r="G384" t="n">
-        <v>12.20000000000002</v>
+        <v>12.27333333333334</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -14376,10 +14198,10 @@
         <v>12.2</v>
       </c>
       <c r="F385" t="n">
-        <v>778315.8781</v>
+        <v>1272288</v>
       </c>
       <c r="G385" t="n">
-        <v>12.20000000000002</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -14399,22 +14221,22 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C386" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D386" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E386" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F386" t="n">
-        <v>44424</v>
+        <v>778315.8781</v>
       </c>
       <c r="G386" t="n">
-        <v>12.25000000000002</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -14437,19 +14259,19 @@
         <v>12.3</v>
       </c>
       <c r="C387" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D387" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E387" t="n">
         <v>12.3</v>
       </c>
       <c r="F387" t="n">
-        <v>856111.6854</v>
+        <v>44424</v>
       </c>
       <c r="G387" t="n">
-        <v>12.40000000000002</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -14469,22 +14291,22 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C388" t="n">
         <v>12.5</v>
       </c>
-      <c r="C388" t="n">
-        <v>12.4</v>
-      </c>
       <c r="D388" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E388" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F388" t="n">
-        <v>2141444.7835</v>
+        <v>856111.6854</v>
       </c>
       <c r="G388" t="n">
-        <v>12.45000000000002</v>
+        <v>12.27333333333334</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -14507,19 +14329,19 @@
         <v>12.5</v>
       </c>
       <c r="C389" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D389" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E389" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F389" t="n">
-        <v>310084.1891</v>
+        <v>2141444.7835</v>
       </c>
       <c r="G389" t="n">
-        <v>12.45000000000002</v>
+        <v>12.27666666666667</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -14545,16 +14367,16 @@
         <v>12.5</v>
       </c>
       <c r="D390" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E390" t="n">
         <v>12.5</v>
       </c>
       <c r="F390" t="n">
-        <v>38590.6169</v>
+        <v>310084.1891</v>
       </c>
       <c r="G390" t="n">
-        <v>12.50000000000002</v>
+        <v>12.27833333333334</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -14569,6 +14391,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C391" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D391" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E391" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F391" t="n">
+        <v>38590.6169</v>
+      </c>
+      <c r="G391" t="n">
+        <v>12.28000000000001</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest FNB.xlsx
+++ b/BackTest/2019-11-20 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-521113.7435000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-491066.5883000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1056482.4512</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1102780.1251</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1599951.2622</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1599854.2947</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1599854.2947</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1607913.2084</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1349170.0091</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1349170.0091</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1549366.8918</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1549366.8918</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1599366.8918</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1599366.8918</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1599366.8918</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1599315.3199</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1739824.6966</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1739824.6966</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1739824.6966</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1337508.1203</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1446024.7055</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1817213.6498</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1791949.1522</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1812313.3583</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1773773.259</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1754505.9547</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1840797.4879</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1840797.4879</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1840745.4879</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2022209.6977</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1898294.7556</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1898294.7556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1898294.7556</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1926402.5879</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1926402.5879</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1961359.1288</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1627005.3118</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1590057.3874</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1474289.3207</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1409987.516995515</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1328038.646295515</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1328038.646295515</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1442090.947895515</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1586720.813195515</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,17 +3586,11 @@
         <v>-1835188.612495515</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3629,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3666,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3699,15 +3685,11 @@
         <v>-1676558.013895515</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3736,15 +3718,11 @@
         <v>-1724876.563895515</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3773,15 +3751,11 @@
         <v>-1722803.414295515</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3810,15 +3784,11 @@
         <v>-1722803.414295515</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3847,15 +3817,11 @@
         <v>-1546344.521595515</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3884,15 +3850,11 @@
         <v>-1546344.521595515</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3921,15 +3883,11 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3958,15 +3916,11 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3995,15 +3949,11 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4032,15 +3982,11 @@
         <v>-1548536.397995515</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4069,15 +4015,11 @@
         <v>-1548536.397995515</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4106,15 +4048,11 @@
         <v>-1548495.397995515</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4143,15 +4081,11 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4180,15 +4114,11 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4217,15 +4147,11 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4254,15 +4180,11 @@
         <v>-1449772.736695515</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4291,15 +4213,11 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4328,15 +4246,11 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4365,15 +4279,11 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4402,15 +4312,11 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4439,15 +4345,11 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4476,15 +4378,11 @@
         <v>-1500178.304595515</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4513,15 +4411,11 @@
         <v>-1987628.243595515</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4550,15 +4444,11 @@
         <v>-1987628.243595515</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4587,15 +4477,11 @@
         <v>-1983954.143895515</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4624,15 +4510,11 @@
         <v>-2080150.984795515</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4661,15 +4543,11 @@
         <v>-2160150.984795515</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4698,15 +4576,11 @@
         <v>-2437261.407295515</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4776,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4813,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4961,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5035,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5146,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5183,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5220,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5294,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5331,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5405,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5442,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5479,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5516,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5553,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5627,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5701,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5775,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5812,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5845,15 +5599,11 @@
         <v>-2385275.444653712</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5886,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5919,15 +5665,11 @@
         <v>-2408420.789653712</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5956,15 +5698,11 @@
         <v>-2408420.789653712</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5997,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6034,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6071,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6108,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6219,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6256,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6367,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6441,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6478,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6552,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6663,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6700,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6774,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6848,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6959,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7070,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7107,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7144,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7218,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7255,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7292,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7329,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7366,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7403,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7440,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7477,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7514,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7588,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7625,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7662,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7699,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7773,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7806,15 +7348,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7843,15 +7381,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7880,15 +7414,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7917,15 +7447,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7954,15 +7480,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7991,15 +7513,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8028,15 +7546,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8065,15 +7579,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8102,15 +7612,11 @@
         <v>-2951883.377353712</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8180,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8254,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8291,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8328,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8402,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8439,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8513,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8546,15 +8008,11 @@
         <v>-3492156.618553712</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8698,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8731,15 +8173,11 @@
         <v>-3493942.816653712</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8768,15 +8206,11 @@
         <v>-3493942.816653712</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8805,15 +8239,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8842,15 +8272,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8879,15 +8305,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9027,17 +8437,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9066,17 +8470,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9109,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9142,17 +8536,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9181,17 +8569,11 @@
         <v>-3597934.747753712</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9220,17 +8602,11 @@
         <v>-3785126.187753712</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9259,17 +8635,11 @@
         <v>-3746731.516153712</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9298,17 +8668,11 @@
         <v>-3746731.516153712</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9378,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9522,17 +8866,11 @@
         <v>-4714102.458753712</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9561,17 +8899,11 @@
         <v>-4714059.458753712</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9600,17 +8932,11 @@
         <v>-4920223.169853712</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9639,17 +8965,11 @@
         <v>-4920223.169853712</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9678,17 +8998,15 @@
         <v>-4919888.162853711</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>11.6</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9717,15 +9035,17 @@
         <v>-6162693.009753712</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>11.8</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9756,12 +9076,14 @@
         <v>-6160517.809453712</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>11.3</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9795,12 +9117,14 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>11.6</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,12 +9158,14 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>11.7</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,12 +9199,14 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>11.7</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,12 +9240,14 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>11.7</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9951,12 +9281,14 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>11.6</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,12 +9322,14 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>11.6</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,12 +9363,14 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>11.6</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,12 +9404,14 @@
         <v>-6281862.295653711</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>11.6</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,12 +9445,14 @@
         <v>-6286007.481753711</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>11.8</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10146,12 +9486,14 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>11.6</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10185,12 +9527,14 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>11.7</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10224,12 +9568,14 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>11.7</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,12 +9609,14 @@
         <v>-6274934.466453711</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>11.7</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,12 +9650,14 @@
         <v>-6418007.870953711</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>11.8</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10341,12 +9691,14 @@
         <v>-6377039.038453711</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>11.7</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10380,12 +9732,14 @@
         <v>-6377039.038453711</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>11.8</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10419,12 +9773,14 @@
         <v>-6484298.937753711</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>11.8</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10458,12 +9814,14 @@
         <v>-6484298.937753711</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>11.6</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10497,12 +9855,14 @@
         <v>-6348402.203253711</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>11.6</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,12 +9896,14 @@
         <v>-6376913.697153711</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>11.7</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10575,12 +9937,14 @@
         <v>-6021715.526153711</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>11.6</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10614,12 +9978,14 @@
         <v>-6021672.526153711</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>11.7</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10653,12 +10019,14 @@
         <v>-6065848.949953711</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>11.8</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,12 +10060,14 @@
         <v>-6254296.059553711</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>11.7</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10731,12 +10101,14 @@
         <v>-6251279.74895371</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>11.6</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10770,12 +10142,14 @@
         <v>-6406704.62235371</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>11.7</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10809,12 +10183,14 @@
         <v>-6406704.62235371</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>11.6</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10848,12 +10224,14 @@
         <v>-6404668.23045371</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>11.6</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,12 +10265,14 @@
         <v>-6404668.23045371</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>11.7</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10926,12 +10306,14 @@
         <v>-6404626.23045371</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>11.7</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,12 +10347,14 @@
         <v>-6359568.32485371</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>11.8</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11004,12 +10388,14 @@
         <v>-6294771.45275371</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>11.9</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11043,12 +10429,14 @@
         <v>-6246354.16755371</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>12</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11082,12 +10470,14 @@
         <v>-5991314.58325371</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>12.1</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11124,7 +10514,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,7 +10553,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11198,7 +10592,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11232,10 +10628,12 @@
         <v>-6078049.82155371</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11269,12 +10667,12 @@
         <v>-6125408.52245371</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>12</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,12 +10706,12 @@
         <v>-6125366.52245371</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11347,12 +10745,12 @@
         <v>-6163075.461053709</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>12</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11386,12 +10784,14 @@
         <v>-6163075.461053709</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>11.9</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11425,12 +10825,14 @@
         <v>-6163075.461053709</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>11.9</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11464,12 +10866,14 @@
         <v>-6164085.38975371</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>11.9</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11503,12 +10907,14 @@
         <v>-6199569.932153709</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>11.8</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11542,12 +10948,14 @@
         <v>-6263487.350353709</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>11.7</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11581,12 +10989,14 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>11.6</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11620,12 +11030,14 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>11.7</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11659,12 +11071,14 @@
         <v>-6271759.062753709</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>11.7</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11698,12 +11112,14 @@
         <v>-6271759.062753709</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>11.6</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11737,12 +11153,14 @@
         <v>-6268812.733853709</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>11.6</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11776,12 +11194,14 @@
         <v>-6249852.729853709</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>11.7</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11815,12 +11235,14 @@
         <v>-6171831.482453709</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>11.8</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11854,12 +11276,14 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>12.1</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11893,12 +11317,14 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>11.9</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11932,12 +11358,14 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>11.9</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11971,10 +11399,14 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J320" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12008,10 +11440,12 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,10 +11479,12 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12082,10 +11518,12 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,10 +11557,12 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12156,10 +11596,12 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12193,10 +11635,12 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12233,7 +11677,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12270,7 +11716,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12307,7 +11755,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,10 +11791,14 @@
         <v>-6214278.914153709</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J330" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12378,10 +11832,14 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J331" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12415,12 +11873,14 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>11.7</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12454,12 +11914,14 @@
         <v>-6214152.950853709</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>11.7</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12493,12 +11955,14 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>11.9</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12532,12 +11996,14 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>11.7</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12571,10 +12037,14 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J336" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12608,10 +12078,14 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J337" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12645,10 +12119,14 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J338" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12685,7 +12163,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12719,12 +12199,12 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12758,10 +12238,12 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,12 +12277,14 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>11.9</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,10 +12318,14 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J343" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,10 +12359,14 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J344" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,8 +12402,12 @@
       <c r="H345" t="n">
         <v>1</v>
       </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="I345" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J345" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12948,7 +12444,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12985,7 +12483,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13022,7 +12522,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13059,7 +12561,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13096,7 +12600,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13133,7 +12639,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13170,7 +12678,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13207,7 +12717,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13244,7 +12756,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13281,7 +12795,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,7 +12834,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13355,7 +12873,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13392,7 +12912,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13429,7 +12951,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,10 +12987,14 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13503,7 +13031,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13540,7 +13070,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13577,7 +13109,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13611,12 +13145,12 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13653,7 +13187,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,12 +13223,12 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13729,7 +13265,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13766,7 +13304,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13803,7 +13343,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13840,7 +13382,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13877,7 +13421,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13914,7 +13460,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13951,7 +13499,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13985,12 +13535,12 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,12 +13574,12 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14066,7 +13616,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14103,7 +13655,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14140,7 +13694,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14177,7 +13733,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14214,7 +13772,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14251,7 +13811,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14288,7 +13850,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14325,7 +13889,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14362,7 +13928,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14396,12 +13964,12 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14438,7 +14006,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14475,7 +14045,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14512,7 +14084,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14549,7 +14123,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,10 +14159,12 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14623,7 +14201,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14660,7 +14240,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,7 +14279,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14734,7 +14318,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14771,7 +14357,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14808,7 +14396,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14842,10 +14432,12 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14879,10 +14471,12 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,7 +14513,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14953,12 +14549,12 @@
         <v>-5998548.650153711</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14995,7 +14591,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,7 +14630,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15069,7 +14669,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15106,7 +14708,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15143,7 +14747,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15180,7 +14786,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15214,12 +14822,12 @@
         <v>-6042532.10685371</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J407" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15253,12 +14861,12 @@
         <v>-5920299.10085371</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>12</v>
-      </c>
-      <c r="J408" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15292,10 +14900,12 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,10 +14939,12 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15366,10 +14978,12 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15406,7 +15020,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15440,10 +15056,12 @@
         <v>-5909677.551253711</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,7 +15098,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15517,7 +15137,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15554,7 +15176,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15588,10 +15212,12 @@
         <v>-5882450.744353711</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15625,10 +15251,12 @@
         <v>-5882450.744353711</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15662,10 +15290,12 @@
         <v>-6003716.950453711</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15702,7 +15332,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15739,7 +15371,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15773,10 +15407,12 @@
         <v>-5986816.29225371</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15810,10 +15446,12 @@
         <v>-5986816.29225371</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15850,7 +15488,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15887,7 +15527,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,7 +15566,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15961,7 +15605,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15998,7 +15644,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16032,10 +15680,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16069,10 +15719,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16106,10 +15758,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,10 +15797,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16180,10 +15836,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16217,10 +15875,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,7 +15917,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16294,7 +15956,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16331,7 +15995,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16368,7 +16034,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16402,10 +16070,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16439,10 +16109,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,10 +16148,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16513,10 +16187,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,10 +16226,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16587,10 +16265,12 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,10 +16304,12 @@
         <v>-6639918.62825371</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,10 +16343,12 @@
         <v>-5783806.942853711</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16698,10 +16382,12 @@
         <v>-7925251.726353711</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,10 +16421,12 @@
         <v>-7615167.53725371</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16772,10 +16460,12 @@
         <v>-7615167.53725371</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16809,10 +16499,12 @@
         <v>-9049483.312853711</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,10 +16538,12 @@
         <v>-8899644.972953711</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16883,10 +16577,12 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16920,10 +16616,12 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16960,7 +16658,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16997,7 +16697,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17031,16 +16733,20 @@
         <v>-6681212.758269096</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L456" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
       <c r="M456" t="inlineStr"/>
     </row>
     <row r="457">
@@ -17066,11 +16772,17 @@
         <v>-6682732.838269096</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17099,11 +16811,17 @@
         <v>-5413721.262069096</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17132,17 +16850,23 @@
         <v>-4355649.008369096</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
       <c r="M459" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest FNB.xlsx
+++ b/BackTest/2019-11-20 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-521113.7435000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-491066.5883000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1056482.4512</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1102780.1251</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1599951.2622</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1599854.2947</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1599854.2947</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1598543.931</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1607913.2084</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1349170.0091</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1349170.0091</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1549366.8918</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1549366.8918</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1599366.8918</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1599366.8918</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1599366.8918</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1599315.3199</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1739824.6966</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1739824.6966</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1739824.6966</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1337508.1203</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1446024.7055</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1817213.6498</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1791949.1522</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1812313.3583</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1773773.259</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1754505.9547</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1840797.4879</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1840797.4879</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1840745.4879</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2022209.6977</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1898294.7556</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1898294.7556</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1898294.7556</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1926402.5879</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1926402.5879</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1961359.1288</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1627005.3118</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1590057.3874</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1474289.3207</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1409987.516995515</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1328038.646295515</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1328038.646295515</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1442090.947895515</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1586720.813195515</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1676558.013895515</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1724876.563895515</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1722803.414295515</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1722803.414295515</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1546344.521595515</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1546344.521595515</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1449772.736695515</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1500178.304595515</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1987628.243595515</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1987628.243595515</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1983954.143895515</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2080150.984795515</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2160150.984795515</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2437261.407295515</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2273200.423753712</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2955508.191653712</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2955508.191653712</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2552825.744753712</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2625752.107953712</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2625752.107953712</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2598319.748953712</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2622275.268953712</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2622275.268953712</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2658266.871153712</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9035,11 +9035,9 @@
         <v>-6162693.009753712</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
         <v>11.6</v>
       </c>
@@ -9076,11 +9074,9 @@
         <v>-6160517.809453712</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
         <v>11.6</v>
       </c>
@@ -9158,11 +9154,9 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>11.6</v>
       </c>
@@ -9199,11 +9193,9 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>11.6</v>
       </c>
@@ -9240,11 +9232,9 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>11.6</v>
       </c>
@@ -9281,11 +9271,9 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>11.6</v>
       </c>
@@ -9322,11 +9310,9 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>11.6</v>
       </c>
@@ -9650,11 +9636,9 @@
         <v>-6418007.870953711</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>11.6</v>
       </c>
@@ -9691,11 +9675,9 @@
         <v>-6377039.038453711</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
         <v>11.6</v>
       </c>
@@ -9732,11 +9714,9 @@
         <v>-6377039.038453711</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>11.6</v>
       </c>
@@ -9773,11 +9753,9 @@
         <v>-6484298.937753711</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>11.6</v>
       </c>
@@ -10019,11 +9997,9 @@
         <v>-6065848.949953711</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>11.6</v>
       </c>
@@ -10183,11 +10159,9 @@
         <v>-6406704.62235371</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>11.6</v>
       </c>
@@ -10306,11 +10280,9 @@
         <v>-6404626.23045371</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>11.6</v>
       </c>
@@ -10347,11 +10319,9 @@
         <v>-6359568.32485371</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>11.6</v>
       </c>
@@ -10388,11 +10358,9 @@
         <v>-6294771.45275371</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>11.6</v>
       </c>
@@ -10429,11 +10397,9 @@
         <v>-6246354.16755371</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
         <v>11.6</v>
       </c>
@@ -10470,11 +10436,9 @@
         <v>-5991314.58325371</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>11.6</v>
       </c>
@@ -10511,7 +10475,7 @@
         <v>-5991314.58325371</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -10519,11 +10483,11 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1</v>
+        <v>1.046724137931035</v>
       </c>
       <c r="M298" t="inlineStr"/>
     </row>
@@ -10550,17 +10514,11 @@
         <v>-6010194.67475371</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10589,17 +10547,11 @@
         <v>-6078091.52155371</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10631,14 +10583,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10670,14 +10616,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10709,14 +10649,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10748,14 +10682,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10784,19 +10712,11 @@
         <v>-6163075.461053709</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J305" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10825,19 +10745,11 @@
         <v>-6163075.461053709</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J306" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10866,19 +10778,11 @@
         <v>-6164085.38975371</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J307" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10907,19 +10811,11 @@
         <v>-6199569.932153709</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J308" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10948,19 +10844,11 @@
         <v>-6263487.350353709</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J309" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10989,19 +10877,11 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J310" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11030,19 +10910,11 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J311" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11071,19 +10943,11 @@
         <v>-6271759.062753709</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J312" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11120,11 +10984,7 @@
       <c r="J313" t="n">
         <v>11.6</v>
       </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11163,7 +11023,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -11204,7 +11064,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -11241,13 +11101,9 @@
         <v>11.8</v>
       </c>
       <c r="J316" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11276,17 +11132,15 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -11317,17 +11171,15 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L318" t="n">
@@ -11358,19 +11210,11 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J319" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11399,19 +11243,11 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J320" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11440,17 +11276,11 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11482,14 +11312,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11518,17 +11342,11 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11557,17 +11375,11 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11596,17 +11408,11 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11635,17 +11441,11 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11674,17 +11474,11 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11716,14 +11510,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11755,14 +11543,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11791,19 +11573,11 @@
         <v>-6214278.914153709</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J330" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11832,19 +11606,11 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J331" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11873,19 +11639,11 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J332" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11914,19 +11672,11 @@
         <v>-6214152.950853709</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J333" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11955,19 +11705,11 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J334" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11996,19 +11738,11 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J335" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12037,19 +11771,11 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J336" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12078,19 +11804,11 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J337" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12119,19 +11837,11 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J338" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +11873,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12202,14 +11906,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12241,14 +11939,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12277,19 +11969,11 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J342" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12318,19 +12002,11 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J343" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12359,19 +12035,11 @@
         <v>-6218839.81025371</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J344" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12400,19 +12068,11 @@
         <v>-6212778.81025371</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J345" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12444,14 +12104,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12483,14 +12137,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12522,14 +12170,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12561,14 +12203,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12600,14 +12236,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12639,14 +12269,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12678,14 +12302,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12717,14 +12335,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12756,14 +12368,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12795,14 +12401,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12834,14 +12434,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12873,14 +12467,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12909,17 +12497,11 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12948,17 +12530,11 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12987,19 +12563,11 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J360" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13028,17 +12596,11 @@
         <v>-6337796.983553709</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13067,17 +12629,11 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13106,17 +12662,11 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13145,17 +12695,11 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13184,17 +12728,11 @@
         <v>-6044774.73945371</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13223,17 +12761,11 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13265,14 +12797,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13301,17 +12827,11 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13340,17 +12860,11 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13379,17 +12893,11 @@
         <v>-6021860.959453709</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13418,17 +12926,11 @@
         <v>-6021333.959453709</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13457,17 +12959,11 @@
         <v>-6021333.959453709</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13496,17 +12992,11 @@
         <v>-6101091.481553709</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13535,17 +13025,11 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13574,17 +13058,11 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13613,17 +13091,11 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13652,17 +13124,11 @@
         <v>-6111526.242853709</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13691,17 +13157,11 @@
         <v>-6111526.242853709</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13730,17 +13190,11 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13769,17 +13223,11 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13808,17 +13256,11 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13847,17 +13289,11 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13886,17 +13322,11 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13925,17 +13355,11 @@
         <v>-6104432.543353709</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13964,17 +13388,11 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14003,17 +13421,11 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14042,17 +13454,11 @@
         <v>-6104559.28445371</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14081,17 +13487,11 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14120,17 +13520,11 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14159,17 +13553,11 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14198,17 +13586,11 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14237,17 +13619,11 @@
         <v>-6084926.84075371</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14276,17 +13652,11 @@
         <v>-6199218.39115371</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14315,17 +13685,11 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14354,17 +13718,11 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14393,17 +13751,11 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14432,17 +13784,11 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14471,17 +13817,11 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14510,17 +13850,11 @@
         <v>-6012430.05645371</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14549,17 +13883,11 @@
         <v>-5998548.650153711</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14588,17 +13916,11 @@
         <v>-5997902.650153711</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14627,17 +13949,11 @@
         <v>-6004900.243853711</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14666,17 +13982,11 @@
         <v>-6004900.243853711</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14705,17 +14015,11 @@
         <v>-6015270.416453711</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14744,17 +14048,11 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14783,17 +14081,11 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14822,17 +14114,11 @@
         <v>-6042532.10685371</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14861,17 +14147,15 @@
         <v>-5920299.10085371</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>12</v>
+      </c>
       <c r="J408" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14900,15 +14184,17 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J409" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -14943,11 +14229,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -14978,17 +14264,11 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15017,17 +14297,15 @@
         <v>-5909677.551253711</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J412" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15060,11 +14338,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L413" t="n">
@@ -15099,11 +14377,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L414" t="n">
@@ -15137,14 +14415,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15176,14 +14448,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15212,17 +14478,11 @@
         <v>-5882450.744353711</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15251,17 +14511,11 @@
         <v>-5882450.744353711</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15290,17 +14544,11 @@
         <v>-6003716.950453711</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15329,17 +14577,11 @@
         <v>-5920718.314053711</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15368,17 +14610,11 @@
         <v>-5986816.29225371</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15407,17 +14643,11 @@
         <v>-5986816.29225371</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15446,17 +14676,11 @@
         <v>-5986816.29225371</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15485,17 +14709,11 @@
         <v>-5986816.29225371</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15524,17 +14742,11 @@
         <v>-6488872.47315371</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15563,17 +14775,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15605,14 +14811,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15644,14 +14844,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15683,14 +14877,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15722,14 +14910,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15761,14 +14943,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15800,14 +14976,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15836,17 +15006,15 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J433" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15875,15 +15043,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J434" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L434" t="n">
@@ -15914,15 +15084,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J435" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L435" t="n">
@@ -15953,17 +15125,15 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J436" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15992,15 +15162,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J437" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L437" t="n">
@@ -16031,15 +15203,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J438" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L438" t="n">
@@ -16070,17 +15244,15 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J439" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16109,15 +15281,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J440" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L440" t="n">
@@ -16148,15 +15322,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J441" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L441" t="n">
@@ -16187,17 +15363,15 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J442" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16226,15 +15400,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J443" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L443" t="n">
@@ -16265,15 +15441,17 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J444" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L444" t="n">
@@ -16304,17 +15482,15 @@
         <v>-6639918.62825371</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J445" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16343,15 +15519,17 @@
         <v>-5783806.942853711</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J446" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L446" t="n">
@@ -16382,15 +15560,15 @@
         <v>-7925251.726353711</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L447" t="n">
@@ -16421,17 +15599,11 @@
         <v>-7615167.53725371</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16460,17 +15632,11 @@
         <v>-7615167.53725371</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16499,17 +15665,11 @@
         <v>-9049483.312853711</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16538,17 +15698,11 @@
         <v>-8899644.972953711</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16577,17 +15731,11 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16616,17 +15764,11 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16655,17 +15797,11 @@
         <v>-7070408.596669096</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16694,17 +15830,11 @@
         <v>-6681212.758269096</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16733,17 +15863,11 @@
         <v>-6681212.758269096</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16772,17 +15896,11 @@
         <v>-6682732.838269096</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16814,14 +15932,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16853,20 +15965,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
       <c r="M459" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest FNB.xlsx
+++ b/BackTest/2019-11-20 BackTest FNB.xlsx
@@ -2893,7 +2893,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1548536.397995515</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1548536.397995515</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1548495.397995515</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2273200.423753712</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2955508.191653712</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2955508.191653712</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2552825.744753712</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2625752.107953712</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2625752.107953712</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2598319.748953712</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2622275.268953712</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2622275.268953712</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2658266.871153712</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8998,14 +8998,10 @@
         <v>-4919888.162853711</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J261" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
@@ -9038,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9113,19 +9097,11 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J264" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9157,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9196,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9274,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9313,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9349,19 +9295,11 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J270" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9390,19 +9328,11 @@
         <v>-6281862.295653711</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J271" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9431,19 +9361,11 @@
         <v>-6286007.481753711</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J272" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9472,19 +9394,11 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J273" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9513,19 +9427,11 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J274" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9554,19 +9460,11 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J275" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9595,19 +9493,11 @@
         <v>-6274934.466453711</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J276" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9639,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9678,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9717,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9756,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9792,19 +9658,11 @@
         <v>-6484298.937753711</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J281" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9833,19 +9691,11 @@
         <v>-6348402.203253711</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J282" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9874,19 +9724,11 @@
         <v>-6376913.697153711</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J283" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9915,19 +9757,11 @@
         <v>-6021715.526153711</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J284" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9956,19 +9790,11 @@
         <v>-6021672.526153711</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J285" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10000,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10036,19 +9856,11 @@
         <v>-6254296.059553711</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J287" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +9897,7 @@
       <c r="J288" t="n">
         <v>11.6</v>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10118,17 +9926,15 @@
         <v>-6406704.62235371</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>11.6</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -10280,9 +10086,11 @@
         <v>-6404626.23045371</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J293" t="n">
         <v>11.6</v>
       </c>
@@ -10475,2862 +10283,3378 @@
         <v>-5991314.58325371</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>11.6</v>
       </c>
       <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>12</v>
+      </c>
+      <c r="C299" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E299" t="n">
+        <v>12</v>
+      </c>
+      <c r="F299" t="n">
+        <v>18880.0915</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-6010194.67475371</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F300" t="n">
+        <v>67896.8468</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-6078091.52155371</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>12</v>
+      </c>
+      <c r="C301" t="n">
+        <v>12</v>
+      </c>
+      <c r="D301" t="n">
+        <v>12</v>
+      </c>
+      <c r="E301" t="n">
+        <v>12</v>
+      </c>
+      <c r="F301" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-6078049.82155371</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D302" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E302" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F302" t="n">
+        <v>47358.7009</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-6125408.52245371</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>12</v>
+      </c>
+      <c r="C303" t="n">
+        <v>12</v>
+      </c>
+      <c r="D303" t="n">
+        <v>12</v>
+      </c>
+      <c r="E303" t="n">
+        <v>12</v>
+      </c>
+      <c r="F303" t="n">
+        <v>42</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-6125366.52245371</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C304" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D304" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E304" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F304" t="n">
+        <v>37708.9386</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-6163075.461053709</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C305" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D305" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E305" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F305" t="n">
+        <v>960</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-6163075.461053709</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C306" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D306" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E306" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F306" t="n">
+        <v>9880.616900000001</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-6163075.461053709</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C307" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D307" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E307" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1009.9287</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-6164085.38975371</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C308" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D308" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E308" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F308" t="n">
+        <v>35484.5424</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-6199569.932153709</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J308" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C309" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E309" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F309" t="n">
+        <v>63917.4182</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-6263487.350353709</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J309" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C310" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D310" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E310" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-6260487.350353709</v>
+      </c>
+      <c r="H310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J310" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C311" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D311" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E311" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F311" t="n">
+        <v>8164.6854</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-6260487.350353709</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J311" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C312" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E312" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F312" t="n">
+        <v>11271.7124</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-6271759.062753709</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J312" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C313" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E313" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F313" t="n">
+        <v>10915.4061</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-6271759.062753709</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J313" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C314" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D314" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E314" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2946.3289</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-6268812.733853709</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J314" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F315" t="n">
+        <v>18960.004</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-6249852.729853709</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J315" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C316" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F316" t="n">
+        <v>78021.24739999999</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-6171831.482453709</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J316" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C317" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D317" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E317" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1610.9251</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-6173442.407553709</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J317" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C318" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D318" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E318" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F318" t="n">
+        <v>8138.9316</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-6173442.407553709</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J318" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C319" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D319" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E319" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F319" t="n">
+        <v>8361.4501</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-6173442.407553709</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J319" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F320" t="n">
+        <v>55524.5055</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-6173442.407553709</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J320" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>12</v>
+      </c>
+      <c r="C321" t="n">
+        <v>12</v>
+      </c>
+      <c r="D321" t="n">
+        <v>12</v>
+      </c>
+      <c r="E321" t="n">
+        <v>12</v>
+      </c>
+      <c r="F321" t="n">
+        <v>111902.9464</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-6061539.461153709</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J321" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>12</v>
+      </c>
+      <c r="C322" t="n">
+        <v>12</v>
+      </c>
+      <c r="D322" t="n">
+        <v>12</v>
+      </c>
+      <c r="E322" t="n">
+        <v>12</v>
+      </c>
+      <c r="F322" t="n">
+        <v>16449733.1208</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-6061539.461153709</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>12</v>
+      </c>
+      <c r="C323" t="n">
+        <v>12</v>
+      </c>
+      <c r="D323" t="n">
+        <v>12</v>
+      </c>
+      <c r="E323" t="n">
+        <v>12</v>
+      </c>
+      <c r="F323" t="n">
+        <v>18911597.9416</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-6061539.461153709</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>12</v>
+      </c>
+      <c r="C324" t="n">
+        <v>12</v>
+      </c>
+      <c r="D324" t="n">
+        <v>12</v>
+      </c>
+      <c r="E324" t="n">
+        <v>12</v>
+      </c>
+      <c r="F324" t="n">
+        <v>29923471.3707</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-6061539.461153709</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>12</v>
+      </c>
+      <c r="C325" t="n">
+        <v>12</v>
+      </c>
+      <c r="D325" t="n">
+        <v>12</v>
+      </c>
+      <c r="E325" t="n">
+        <v>12</v>
+      </c>
+      <c r="F325" t="n">
+        <v>783320.6248</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-6061539.461153709</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C326" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D326" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E326" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F326" t="n">
+        <v>148251.453</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-6209790.914153709</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C327" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D327" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E327" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F327" t="n">
+        <v>63369.3488</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-6209790.914153709</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C328" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D328" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E328" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F328" t="n">
+        <v>36624.5099</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-6209790.914153709</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D329" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F329" t="n">
+        <v>3241.7135</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-6209790.914153709</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C330" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E330" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F330" t="n">
+        <v>4488</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-6214278.914153709</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C331" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D331" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E331" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F331" t="n">
+        <v>83.8382</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-6214195.075953709</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J331" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C332" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D332" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E332" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F332" t="n">
+        <v>82224.9212</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-6214195.075953709</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J332" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C333" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D333" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F333" t="n">
+        <v>42.1251</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-6214152.950853709</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J333" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C334" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D334" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E334" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F334" t="n">
+        <v>4770.9845</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-6218923.935353709</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C335" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D335" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E335" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F335" t="n">
+        <v>29505.2252</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-6218923.935353709</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J335" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C336" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D336" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E336" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F336" t="n">
+        <v>42</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-6218881.935353709</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J336" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F337" t="n">
+        <v>80953.02559999999</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-6218881.935353709</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J337" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C338" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D338" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E338" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F338" t="n">
+        <v>42.1251</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C339" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D339" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E339" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F339" t="n">
+        <v>93482.9283</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C340" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D340" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E340" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F340" t="n">
+        <v>25568.3583</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C341" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D341" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E341" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F341" t="n">
+        <v>24474.6417</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C342" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F342" t="n">
+        <v>18621.8818</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C343" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D343" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E343" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F343" t="n">
+        <v>7974.8284</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C344" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D344" t="n">
+        <v>12</v>
+      </c>
+      <c r="E344" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F344" t="n">
+        <v>16013.0643</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-6218839.81025371</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C345" t="n">
+        <v>12</v>
+      </c>
+      <c r="D345" t="n">
+        <v>12</v>
+      </c>
+      <c r="E345" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F345" t="n">
+        <v>6061</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>12</v>
+      </c>
+      <c r="C346" t="n">
+        <v>12</v>
+      </c>
+      <c r="D346" t="n">
+        <v>12</v>
+      </c>
+      <c r="E346" t="n">
+        <v>12</v>
+      </c>
+      <c r="F346" t="n">
+        <v>2145</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>12</v>
+      </c>
+      <c r="C347" t="n">
+        <v>12</v>
+      </c>
+      <c r="D347" t="n">
+        <v>12</v>
+      </c>
+      <c r="E347" t="n">
+        <v>12</v>
+      </c>
+      <c r="F347" t="n">
+        <v>382</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>12</v>
+      </c>
+      <c r="C348" t="n">
+        <v>12</v>
+      </c>
+      <c r="D348" t="n">
+        <v>12</v>
+      </c>
+      <c r="E348" t="n">
+        <v>12</v>
+      </c>
+      <c r="F348" t="n">
+        <v>18692.039</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>12</v>
+      </c>
+      <c r="C349" t="n">
+        <v>12</v>
+      </c>
+      <c r="D349" t="n">
+        <v>12</v>
+      </c>
+      <c r="E349" t="n">
+        <v>12</v>
+      </c>
+      <c r="F349" t="n">
+        <v>716</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>12</v>
+      </c>
+      <c r="C350" t="n">
+        <v>12</v>
+      </c>
+      <c r="D350" t="n">
+        <v>12</v>
+      </c>
+      <c r="E350" t="n">
+        <v>12</v>
+      </c>
+      <c r="F350" t="n">
+        <v>182</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>12</v>
+      </c>
+      <c r="C351" t="n">
+        <v>12</v>
+      </c>
+      <c r="D351" t="n">
+        <v>12</v>
+      </c>
+      <c r="E351" t="n">
+        <v>12</v>
+      </c>
+      <c r="F351" t="n">
+        <v>366</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-6212778.81025371</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C352" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D352" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E352" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>367197</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-6579975.81025371</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C353" t="n">
+        <v>12</v>
+      </c>
+      <c r="D353" t="n">
+        <v>12</v>
+      </c>
+      <c r="E353" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F353" t="n">
+        <v>90088</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-6489887.81025371</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>12</v>
+      </c>
+      <c r="C354" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E354" t="n">
+        <v>12</v>
+      </c>
+      <c r="F354" t="n">
+        <v>124995.2597</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>12</v>
+      </c>
+      <c r="C355" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D355" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E355" t="n">
+        <v>12</v>
+      </c>
+      <c r="F355" t="n">
+        <v>16988.3224</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C356" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F356" t="n">
+        <v>381</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C357" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E357" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1174</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C358" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F358" t="n">
+        <v>834</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C359" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E359" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>429</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C360" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E360" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>163886.4491</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-6364892.550553709</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D361" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E361" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>27095.567</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-6337796.983553709</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C362" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D362" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E362" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F362" t="n">
+        <v>338355.6932</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-5999441.29035371</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C363" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D363" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E363" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F363" t="n">
+        <v>821</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-5999441.29035371</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C364" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D364" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E364" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F364" t="n">
+        <v>676135.5033</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-5999441.29035371</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>45333.4491</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-6044774.73945371</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C366" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D366" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F366" t="n">
+        <v>110551.8798</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-5934222.859653709</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C367" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D367" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E367" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F367" t="n">
+        <v>96822.89509999999</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-5934222.859653709</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C368" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D368" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E368" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37664.1686</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-5934222.859653709</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F369" t="n">
+        <v>644</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-5934222.859653709</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C370" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D370" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E370" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F370" t="n">
+        <v>87638.0998</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-6021860.959453709</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C371" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D371" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E371" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F371" t="n">
+        <v>527</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-6021333.959453709</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C372" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D372" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E372" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F372" t="n">
+        <v>383</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-6021333.959453709</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C373" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D373" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E373" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F373" t="n">
+        <v>79757.5221</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-6101091.481553709</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C374" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D374" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E374" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F374" t="n">
+        <v>61708.7346</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-6039382.746953709</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C375" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D375" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E375" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F375" t="n">
+        <v>821</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-6039382.746953709</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F376" t="n">
+        <v>251.0505</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-6039382.746953709</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C377" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D377" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E377" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F377" t="n">
+        <v>72143.49589999999</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-6111526.242853709</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C378" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D378" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E378" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F378" t="n">
+        <v>21898.4059</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-6111526.242853709</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C379" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D379" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E379" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F379" t="n">
+        <v>176007.0914</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-5935519.151453709</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C380" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D380" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E380" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>59827</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-5935519.151453709</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C381" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D381" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E381" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F381" t="n">
+        <v>133703.6509</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-5935519.151453709</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C382" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D382" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E382" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>16878.9886</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-5935519.151453709</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C383" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D383" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E383" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F383" t="n">
+        <v>40.3226</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-5935519.151453709</v>
+      </c>
+      <c r="H383" t="n">
+        <v>2</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K383" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1.046724137931035</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>12</v>
-      </c>
-      <c r="C299" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E299" t="n">
-        <v>12</v>
-      </c>
-      <c r="F299" t="n">
-        <v>18880.0915</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-6010194.67475371</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C300" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D300" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E300" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F300" t="n">
-        <v>67896.8468</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-6078091.52155371</v>
-      </c>
-      <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>12</v>
-      </c>
-      <c r="C301" t="n">
-        <v>12</v>
-      </c>
-      <c r="D301" t="n">
-        <v>12</v>
-      </c>
-      <c r="E301" t="n">
-        <v>12</v>
-      </c>
-      <c r="F301" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-6078049.82155371</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C302" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D302" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E302" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F302" t="n">
-        <v>47358.7009</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-6125408.52245371</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>12</v>
-      </c>
-      <c r="C303" t="n">
-        <v>12</v>
-      </c>
-      <c r="D303" t="n">
-        <v>12</v>
-      </c>
-      <c r="E303" t="n">
-        <v>12</v>
-      </c>
-      <c r="F303" t="n">
-        <v>42</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-6125366.52245371</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C304" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D304" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E304" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F304" t="n">
-        <v>37708.9386</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-6163075.461053709</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C305" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D305" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E305" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F305" t="n">
-        <v>960</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-6163075.461053709</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C306" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D306" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E306" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F306" t="n">
-        <v>9880.616900000001</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-6163075.461053709</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C307" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D307" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E307" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F307" t="n">
-        <v>1009.9287</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-6164085.38975371</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C308" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D308" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E308" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F308" t="n">
-        <v>35484.5424</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-6199569.932153709</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C309" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D309" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E309" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F309" t="n">
-        <v>63917.4182</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-6263487.350353709</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C310" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D310" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E310" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F310" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-6260487.350353709</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C311" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D311" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E311" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F311" t="n">
-        <v>8164.6854</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-6260487.350353709</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C312" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D312" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E312" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F312" t="n">
-        <v>11271.7124</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-6271759.062753709</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C313" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D313" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E313" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F313" t="n">
-        <v>10915.4061</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-6271759.062753709</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J313" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C314" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D314" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E314" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F314" t="n">
-        <v>2946.3289</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-6268812.733853709</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J314" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F315" t="n">
-        <v>18960.004</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-6249852.729853709</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J315" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C316" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E316" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F316" t="n">
-        <v>78021.24739999999</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-6171831.482453709</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J316" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C317" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D317" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E317" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1610.9251</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-6173442.407553709</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C318" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D318" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E318" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F318" t="n">
-        <v>8138.9316</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-6173442.407553709</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C319" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D319" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E319" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F319" t="n">
-        <v>8361.4501</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-6173442.407553709</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F320" t="n">
-        <v>55524.5055</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-6173442.407553709</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>12</v>
-      </c>
-      <c r="C321" t="n">
-        <v>12</v>
-      </c>
-      <c r="D321" t="n">
-        <v>12</v>
-      </c>
-      <c r="E321" t="n">
-        <v>12</v>
-      </c>
-      <c r="F321" t="n">
-        <v>111902.9464</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-6061539.461153709</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>12</v>
-      </c>
-      <c r="C322" t="n">
-        <v>12</v>
-      </c>
-      <c r="D322" t="n">
-        <v>12</v>
-      </c>
-      <c r="E322" t="n">
-        <v>12</v>
-      </c>
-      <c r="F322" t="n">
-        <v>16449733.1208</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-6061539.461153709</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>12</v>
-      </c>
-      <c r="C323" t="n">
-        <v>12</v>
-      </c>
-      <c r="D323" t="n">
-        <v>12</v>
-      </c>
-      <c r="E323" t="n">
-        <v>12</v>
-      </c>
-      <c r="F323" t="n">
-        <v>18911597.9416</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-6061539.461153709</v>
-      </c>
-      <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>12</v>
-      </c>
-      <c r="C324" t="n">
-        <v>12</v>
-      </c>
-      <c r="D324" t="n">
-        <v>12</v>
-      </c>
-      <c r="E324" t="n">
-        <v>12</v>
-      </c>
-      <c r="F324" t="n">
-        <v>29923471.3707</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-6061539.461153709</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>12</v>
-      </c>
-      <c r="C325" t="n">
-        <v>12</v>
-      </c>
-      <c r="D325" t="n">
-        <v>12</v>
-      </c>
-      <c r="E325" t="n">
-        <v>12</v>
-      </c>
-      <c r="F325" t="n">
-        <v>783320.6248</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-6061539.461153709</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C326" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D326" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E326" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F326" t="n">
-        <v>148251.453</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-6209790.914153709</v>
-      </c>
-      <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C327" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D327" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E327" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F327" t="n">
-        <v>63369.3488</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-6209790.914153709</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C328" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D328" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E328" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F328" t="n">
-        <v>36624.5099</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-6209790.914153709</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C329" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D329" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E329" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F329" t="n">
-        <v>3241.7135</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-6209790.914153709</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C330" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D330" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E330" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F330" t="n">
-        <v>4488</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-6214278.914153709</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C331" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D331" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E331" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F331" t="n">
-        <v>83.8382</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-6214195.075953709</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C332" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D332" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E332" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F332" t="n">
-        <v>82224.9212</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-6214195.075953709</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C333" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D333" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E333" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F333" t="n">
-        <v>42.1251</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-6214152.950853709</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C334" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D334" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E334" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F334" t="n">
-        <v>4770.9845</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-6218923.935353709</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C335" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D335" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E335" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F335" t="n">
-        <v>29505.2252</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-6218923.935353709</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C336" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D336" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E336" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F336" t="n">
-        <v>42</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-6218881.935353709</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C337" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D337" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E337" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F337" t="n">
-        <v>80953.02559999999</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-6218881.935353709</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C338" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D338" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E338" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F338" t="n">
-        <v>42.1251</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C339" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D339" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E339" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F339" t="n">
-        <v>93482.9283</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C340" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D340" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E340" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F340" t="n">
-        <v>25568.3583</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C341" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D341" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E341" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F341" t="n">
-        <v>24474.6417</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C342" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D342" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E342" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F342" t="n">
-        <v>18621.8818</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C343" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D343" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E343" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F343" t="n">
-        <v>7974.8284</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C344" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D344" t="n">
-        <v>12</v>
-      </c>
-      <c r="E344" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F344" t="n">
-        <v>16013.0643</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-6218839.81025371</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C345" t="n">
-        <v>12</v>
-      </c>
-      <c r="D345" t="n">
-        <v>12</v>
-      </c>
-      <c r="E345" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F345" t="n">
-        <v>6061</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>12</v>
-      </c>
-      <c r="C346" t="n">
-        <v>12</v>
-      </c>
-      <c r="D346" t="n">
-        <v>12</v>
-      </c>
-      <c r="E346" t="n">
-        <v>12</v>
-      </c>
-      <c r="F346" t="n">
-        <v>2145</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>12</v>
-      </c>
-      <c r="C347" t="n">
-        <v>12</v>
-      </c>
-      <c r="D347" t="n">
-        <v>12</v>
-      </c>
-      <c r="E347" t="n">
-        <v>12</v>
-      </c>
-      <c r="F347" t="n">
-        <v>382</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>12</v>
-      </c>
-      <c r="C348" t="n">
-        <v>12</v>
-      </c>
-      <c r="D348" t="n">
-        <v>12</v>
-      </c>
-      <c r="E348" t="n">
-        <v>12</v>
-      </c>
-      <c r="F348" t="n">
-        <v>18692.039</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>12</v>
-      </c>
-      <c r="C349" t="n">
-        <v>12</v>
-      </c>
-      <c r="D349" t="n">
-        <v>12</v>
-      </c>
-      <c r="E349" t="n">
-        <v>12</v>
-      </c>
-      <c r="F349" t="n">
-        <v>716</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>12</v>
-      </c>
-      <c r="C350" t="n">
-        <v>12</v>
-      </c>
-      <c r="D350" t="n">
-        <v>12</v>
-      </c>
-      <c r="E350" t="n">
-        <v>12</v>
-      </c>
-      <c r="F350" t="n">
-        <v>182</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>12</v>
-      </c>
-      <c r="C351" t="n">
-        <v>12</v>
-      </c>
-      <c r="D351" t="n">
-        <v>12</v>
-      </c>
-      <c r="E351" t="n">
-        <v>12</v>
-      </c>
-      <c r="F351" t="n">
-        <v>366</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-6212778.81025371</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C352" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D352" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E352" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F352" t="n">
-        <v>367197</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-6579975.81025371</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C353" t="n">
-        <v>12</v>
-      </c>
-      <c r="D353" t="n">
-        <v>12</v>
-      </c>
-      <c r="E353" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F353" t="n">
-        <v>90088</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-6489887.81025371</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>12</v>
-      </c>
-      <c r="C354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E354" t="n">
-        <v>12</v>
-      </c>
-      <c r="F354" t="n">
-        <v>124995.2597</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>12</v>
-      </c>
-      <c r="C355" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D355" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E355" t="n">
-        <v>12</v>
-      </c>
-      <c r="F355" t="n">
-        <v>16988.3224</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F356" t="n">
-        <v>381</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F357" t="n">
-        <v>1174</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F358" t="n">
-        <v>834</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C359" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D359" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E359" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F359" t="n">
-        <v>429</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F360" t="n">
-        <v>163886.4491</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-6364892.550553709</v>
-      </c>
-      <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C361" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D361" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E361" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F361" t="n">
-        <v>27095.567</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-6337796.983553709</v>
-      </c>
-      <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C362" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D362" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E362" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F362" t="n">
-        <v>338355.6932</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-5999441.29035371</v>
-      </c>
-      <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C363" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D363" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E363" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F363" t="n">
-        <v>821</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-5999441.29035371</v>
-      </c>
-      <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C364" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D364" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F364" t="n">
-        <v>676135.5033</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-5999441.29035371</v>
-      </c>
-      <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D365" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F365" t="n">
-        <v>45333.4491</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-6044774.73945371</v>
-      </c>
-      <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C366" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D366" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F366" t="n">
-        <v>110551.8798</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-5934222.859653709</v>
-      </c>
-      <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C367" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D367" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E367" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F367" t="n">
-        <v>96822.89509999999</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-5934222.859653709</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C368" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D368" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E368" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F368" t="n">
-        <v>37664.1686</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-5934222.859653709</v>
-      </c>
-      <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C369" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D369" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E369" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F369" t="n">
-        <v>644</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-5934222.859653709</v>
-      </c>
-      <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C370" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D370" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E370" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F370" t="n">
-        <v>87638.0998</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-6021860.959453709</v>
-      </c>
-      <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C371" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D371" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E371" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F371" t="n">
-        <v>527</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-6021333.959453709</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C372" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D372" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E372" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F372" t="n">
-        <v>383</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-6021333.959453709</v>
-      </c>
-      <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C373" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D373" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E373" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F373" t="n">
-        <v>79757.5221</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-6101091.481553709</v>
-      </c>
-      <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C374" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D374" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E374" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F374" t="n">
-        <v>61708.7346</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-6039382.746953709</v>
-      </c>
-      <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C375" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D375" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E375" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F375" t="n">
-        <v>821</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-6039382.746953709</v>
-      </c>
-      <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F376" t="n">
-        <v>251.0505</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-6039382.746953709</v>
-      </c>
-      <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C377" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D377" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E377" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F377" t="n">
-        <v>72143.49589999999</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-6111526.242853709</v>
-      </c>
-      <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C378" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D378" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E378" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F378" t="n">
-        <v>21898.4059</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-6111526.242853709</v>
-      </c>
-      <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C379" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D379" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E379" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F379" t="n">
-        <v>176007.0914</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-5935519.151453709</v>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C380" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D380" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E380" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F380" t="n">
-        <v>59827</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-5935519.151453709</v>
-      </c>
-      <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C381" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D381" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E381" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F381" t="n">
-        <v>133703.6509</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-5935519.151453709</v>
-      </c>
-      <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C382" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D382" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E382" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F382" t="n">
-        <v>16878.9886</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-5935519.151453709</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C383" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D383" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E383" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F383" t="n">
-        <v>40.3226</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-5935519.151453709</v>
-      </c>
-      <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
+        <v>1.06396551724138</v>
+      </c>
+      <c r="M383" t="n">
+        <v>1.097345132743363</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -13421,7 +13745,7 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14015,7 +14339,7 @@
         <v>-6015270.416453711</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14048,7 +14372,7 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14081,7 +14405,7 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14114,7 +14438,7 @@
         <v>-6042532.10685371</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14147,14 +14471,10 @@
         <v>-5920299.10085371</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>12</v>
-      </c>
-      <c r="J408" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
@@ -14184,19 +14504,11 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J409" t="n">
-        <v>12</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14228,14 +14540,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>12</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14264,7 +14570,7 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14297,14 +14603,10 @@
         <v>-5909677.551253711</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J412" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
@@ -14337,14 +14639,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14376,14 +14672,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14412,7 +14702,7 @@
         <v>-5820455.200953711</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14445,7 +14735,7 @@
         <v>-5809401.200953711</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14775,7 +15065,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15006,14 +15296,10 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J433" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
@@ -15043,19 +15329,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J434" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15084,19 +15362,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J435" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15125,14 +15395,10 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J436" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
@@ -15162,19 +15428,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J437" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15203,19 +15461,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J438" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15244,14 +15494,10 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J439" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
@@ -15281,19 +15527,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J440" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15322,19 +15560,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J441" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15363,14 +15593,10 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J442" t="n">
-        <v>12.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
@@ -15400,19 +15626,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J443" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15441,19 +15659,11 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J444" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15482,14 +15692,10 @@
         <v>-6639918.62825371</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J445" t="n">
-        <v>12.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
@@ -15519,19 +15725,11 @@
         <v>-5783806.942853711</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J446" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15563,14 +15761,8 @@
         <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15731,7 +15923,7 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15929,7 +16121,7 @@
         <v>-5413721.262069096</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15962,7 +16154,7 @@
         <v>-4355649.008369096</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
